--- a/data/HODOR_DATASOURCE.xlsx
+++ b/data/HODOR_DATASOURCE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduard\ownCloud\ontwikkelen\github.com\GegevensVergelijker.metwijzigingen\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="222">
   <si>
     <t>NAME</t>
   </si>
@@ -35,18 +40,18 @@
   </si>
   <si>
     <t>SELECT
-  ispiegel_k_woz.WOZOBJECTNUMMER,
+  SWF_ispiegel_k_woz.WOZOBJECTNUMMER,
   CASE WHEN 
-    NOT MAX(ispiegel_k_woz.adresseerbaarobjectid) IS NULL 
+    NOT MAX(SWF_ispiegel_k_woz.adresseerbaarobjectid) IS NULL 
     OR 
-    NOT MAX(ispiegel_k_woz.pandid) IS NULL THEN
+    NOT MAX(SWF_ispiegel_k_woz.pandid) IS NULL THEN
     1
   ELSE
     0
   END AS BAGREFERENTIE
-FROM ispiegel_k_woz
-WHERE ispiegel_k_woz.wozgebruikscode IN (10, 11, 12, 20, 21, 30, 31)
-GROUP BY ispiegel_k_woz.WOZOBJECTNUMMER</t>
+FROM SWF_ispiegel_k_woz
+WHERE SWF_ispiegel_k_woz.wozgebruikscode IN (10, 11, 12, 20, 21, 30, 31)
+GROUP BY SWF_ispiegel_k_woz.WOZOBJECTNUMMER</t>
   </si>
   <si>
     <t>R7.1</t>
@@ -84,11 +89,11 @@
   bra_adres.adresid       AS BAG_NUMMERAANDUIDING_ID,
   bgr_verblijfsobject.verblijfsobjectid   AS BAG_VERBLIJFSOBJECT_ID
 FROM 
-  "BAGOWNER"."BRA_ADRES"@PBAG       bra_adres,
-  "BAGOWNER"."BRA_RUIMTE"@PBAG      bra_ruimte,
-  "BAGOWNER"."BRA_WOONPLAATS"@PBAG  bra_woonplaats,
-  "BAGOWNER"."BGR_VERBLIJFSOBJECTADRES"@PBAG bgr_verblijfsobjectadres,
-  "BAGOWNER"."BGR_VERBLIJFSOBJECT"@PBAG bgr_verblijfsobject
+  BAGOWNER.BRA_ADRES       bra_adres,
+  BAGOWNER.BRA_RUIMTE      bra_ruimte,
+  BAGOWNER.BRA_WOONPLAATS  bra_woonplaats,
+  BAGOWNER.BGR_VERBLIJFSOBJECTADRES bgr_verblijfsobjectadres,
+  BAGOWNER.BGR_VERBLIJFSOBJECT bgr_verblijfsobject
 WHERE bra_adres.ddeinde               IS NULL
 AND bra_adres.indactief               = 'J'
 AND bra_ruimte.ddeinde                IS NULL
@@ -123,11 +128,11 @@
   bra_adres.adresid,
   bgr_ligplaats.ligplaatsid
 FROM
-  "BAGOWNER"."BRA_ADRES"@PBAG       bra_adres,
-  "BAGOWNER"."BRA_RUIMTE"@PBAG      bra_ruimte,  
-  "BAGOWNER"."BRA_WOONPLAATS"@PBAG  bra_woonplaats,
-  "BAGOWNER"."BGR_LIGPLAATSADRES"@PBAG bgr_ligplaatsadres,
-  "BAGOWNER"."BGR_LIGPLAATS"@PBAG bgr_ligplaats
+  BAGOWNER.BRA_ADRES       bra_adres,
+  BAGOWNER.BRA_RUIMTE      bra_ruimte,  
+  BAGOWNER.BRA_WOONPLAATS  bra_woonplaats,
+  BAGOWNER.BGR_LIGPLAATSADRES bgr_ligplaatsadres,
+  BAGOWNER.BGR_LIGPLAATS bgr_ligplaats
 WHERE bra_adres.ddeinde        IS NULL
 AND bra_adres.indactief           = 'J'
 AND bra_ruimte.ddeinde           IS NULL
@@ -162,11 +167,11 @@
   bra_adres.adresid,
   bgr_standplaats.standplaatsid
 FROM
-  "BAGOWNER"."BRA_ADRES"@PBAG       bra_adres,
-  "BAGOWNER"."BRA_RUIMTE"@PBAG      bra_ruimte,  
-  "BAGOWNER"."BRA_WOONPLAATS"@PBAG  bra_woonplaats,
-  "BAGOWNER"."BGR_STANDPLAATSADRES"@PBAG bgr_standplaatsadres,
-  "BAGOWNER"."BGR_STANDPLAATS"@PBAG bgr_standplaats    
+  BAGOWNER.BRA_ADRES       bra_adres,
+  BAGOWNER.BRA_RUIMTE      bra_ruimte,  
+  BAGOWNER.BRA_WOONPLAATS  bra_woonplaats,
+  BAGOWNER.BGR_STANDPLAATSADRES bgr_standplaatsadres,
+  BAGOWNER.BGR_STANDPLAATS bgr_standplaats    
 WHERE bra_adres.ddeinde            IS NULL
 AND bra_adres.indactief               = 'J'
 AND bra_ruimte.ddeinde               IS NULL
@@ -313,33 +318,33 @@
   <si>
     <t xml:space="preserve"> SELECT 
   'pand' AS bagtype,
-  ispiegel_k_pand.pandid AS bagobjectid,
-  CASE WHEN NOT max(ISPIEGEL_K_WOZ.pandid) IS NULL THEN
+  SWF_ispiegel_k_pand.pandid AS bagobjectid,
+  CASE WHEN NOT max(SWF_ISPIEGEL_K_WOZ.pandid) IS NULL THEN
     1
   ELSE
     0
   END AS bagreferentie
-FROM ispiegel_k_pand
-LEFT OUTER JOIN ISPIEGEL_K_WOZ
-  ON ISPIEGEL_K_WOZ.pandid = ispiegel_k_pand.pandid
-WHERE ispiegel_k_pand.verblijfsobjectid IS NULL
-GROUP BY ispiegel_k_pand.pandid
+FROM SWF_ispiegel_k_pand
+LEFT OUTER JOIN SWF_ISPIEGEL_K_WOZ
+  ON SWF_ISPIEGEL_K_WOZ.pandid = SWF_ispiegel_k_pand.pandid
+WHERE SWF_ispiegel_k_pand.verblijfsobjectid IS NULL
+GROUP BY SWF_ispiegel_k_pand.pandid
 -------------------
 UNION
 -------------------
 SELECT
   'vbo',
-  ispiegel_k_pand.verblijfsobjectid,
-  CASE WHEN NOT max(ISPIEGEL_K_WOZ.adresseerbaarobjectid) IS NULL THEN
+  SWF_ispiegel_k_pand.verblijfsobjectid,
+  CASE WHEN NOT max(SWF_ISPIEGEL_K_WOZ.adresseerbaarobjectid) IS NULL THEN
     1
   ELSE
     0
   END AS bagreferentie  
-FROM ispiegel_k_pand
-LEFT OUTER JOIN ISPIEGEL_K_WOZ
-  ON ISPIEGEL_K_WOZ.adresseerbaarobjectid = ispiegel_k_pand.verblijfsobjectid 
-WHERE NOT ispiegel_k_pand.verblijfsobjectid IS NULL
-GROUP BY ispiegel_k_pand.verblijfsobjectid</t>
+FROM SWF_ispiegel_k_pand
+LEFT OUTER JOIN SWF_ISPIEGEL_K_WOZ
+  ON SWF_ISPIEGEL_K_WOZ.adresseerbaarobjectid = SWF_ispiegel_k_pand.verblijfsobjectid 
+WHERE NOT SWF_ispiegel_k_pand.verblijfsobjectid IS NULL
+GROUP BY SWF_ispiegel_k_pand.verblijfsobjectid</t>
   </si>
   <si>
     <t>OA</t>
@@ -813,7 +818,8 @@
 LEFT JOIN CORSA_PROD.OBJ_KENM gemeentecode
     ON gemeentecode.OBJECT_ID = adres.relatie_id
     AND gemeentecode.kenmerk_ID = 'StufGebP'
-WHERE SUBSTR(adres.RELATIE_ID, 0, 3) = 'SP.'</t>
+WHERE SUBSTR(adres.RELATIE_ID, 0, 3) = 'SP.'
+AND sofinummer.OBJECT_ID is not null</t>
   </si>
   <si>
     <t>GBA_OVERLEDEN</t>
@@ -1237,7 +1243,7 @@
 DDS_ADR_OPSLAG.STTNAM,
 DDS_ADR_OPSLAG.STTNAM_U,
 DDS_ADR_OPSLAG.STTNAM_D,
-dds_tekensetconversie.teletex2unicode@PDDS(DDS_ADR_OPSLAG.STTNAM_D) AS Straat,
+dds_tekensetconversie.teletex2unicode@PDDS(DDS_ADR_OPSLAG.STTNAM_D) AS Straatnaam,
 DDS_ADR_OPSLAG.HUINUM,
 DDS_ADR_OPSLAG.HUITVG,
 DDS_ADR_OPSLAG.HUILET,
@@ -1248,6 +1254,8 @@
 UPPER (DDS_ADR_OPSLAG.WPLNAM) as Woonplaats_U,
 dds_tekensetconversie.teletex2unicode@PDDS(DDS_ADR_OPSLAG.WPLNAM) AS Woonplaats,
 --dds_tekensetconversie.teletex2unicode@PDDS(DDS_ADR_OPSLAG.WPLNAM) AS Woonplaats_U,
+dds_tekensetconversie.teletex2unicode@PDDS(DDS_ADR_OPSLAG.OBRNAM_D) AS Straat
+,
 DDS_ADR_OPSLAG.OBRNAM_D,
 DDS_ADR_OPSLAG.OBRNAM_U,
 dds_tekensetconversie.teletex2unicode@PDDS(DDS_ADR_OPSLAG.OBRNAM_D) AS openbare_ruimte,
@@ -1280,8 +1288,10 @@
   sub_tnpers.nvoor,
   sub_tnpers.nvoorlt,
   sub_tnpers.nvoorvg,
+  LOWER(sub_tnpers.ngsl) AS NAAM,
   sub_tnpers.ngsl,
   sub_tnpers.dgeb,
+  SUBSTR(sub_tnpers.dgeb, 7, 2) || SUBSTR(sub_tnpers.dgeb, 5, 2) || SUBSTR(sub_tnpers.dgeb, 3, 2) AS GEBOORTEDATUM,
   sub_tnpers.itype,
   sub_tnpers.dovl,
   sub_tnpers.kgemins,
@@ -1310,8 +1320,7 @@
 WHERE pvs_tvergunning.deinde IS NULL
   AND sub_tnpers.dovl is null
   AND sub_tsbjadr.osrtadr = 'Woonadres'
-  --AND sub_tnpers.kgemins != null
---and sub_tnpers.rsofi = '23031438'</t>
+  --AND sub_tnpers.kgemins != null</t>
   </si>
   <si>
     <t>DDS_voor_bpa</t>
@@ -1521,6 +1530,182 @@
        </t>
   </si>
   <si>
+    <t>GVG_NNP</t>
+  </si>
+  <si>
+    <t>--Niet-natuurlijke personen in GISvg 
+-- Raadplegen personen
+select distinct
+PBSPSN.reg_nr, 
+PBSPBT.straat, 
+PBSPBT.huisnr, 
+PBSPBT.huislt, 
+PBSPBT.huistv, 
+PBSPBT.postkode, 
+PBSPBT.woonplaats,
+PBSPSN.kvk_nummer, 
+PBSPSN.handelsregnr,
+PBSPSN.zoeknaam, 
+PBSPSN.gebnaam, 
+PBSPSN.naam_verkort_bl, 
+PBSPSN.naam_verkort, 
+PBSPSN.naam_bl, 
+PBSPSN.naam, 
+PBSPBT.gemkd_gem, 
+PBSPBT.ident_na, 
+PBSPBT.ident_tgo, 
+PBSPSN.ident_pbt
+from VG.VGBEL 
+LEFT OUTER JOIN VG.F5SUB1 
+   on VGBEL."STAMNR_SUB"=F5SUB1."STAMNUMMER"
+LEFT OUTER JOIN VG.PBSPSN 
+--personen
+  on F5SUB1."MICRO_VLG"=PBSPSN."REG_NR"
+LEFT OUTER JOIN VG.PBSPBT 
+--adressen
+  on PBSPSN."IDENT_PBT"=PBSPBT."IDENT"
+where PBSPSN.SOORT_PERSOON = '2'
+AND PBSPBT.GEMKD_GEM = 1900
+and PBSPSN.handelsregnr is not null
+and PBSPSN.kvk_nummer is not null</t>
+  </si>
+  <si>
+    <t>BAG_VBO</t>
+  </si>
+  <si>
+    <t>-- VERBLIJFSOBJECTEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT 
+DISTINCT
+BGR_VERBLIJFSOBJECT.VOBJNR,
+BGR_VERBLIJFSOBJECT.VERBLIJFSOBJECTID,
+BGR_VERBLIJFSOBJECT.DDEINDE,
+BGR_VERBLIJFSOBJECT.INDONDERZOEK,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BGR_VERBLIJFSOBJECTADRES.ADRESID,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BGR_VERBLIJFSOBJECT.OPPERVLAK,
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'bijeenkomstfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'B' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'celfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'C' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'gezondheidszorgfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'G' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'industriefunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'I' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'kantoorfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'K' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'logiesfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'L' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'onderwijsfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'On' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'overige gebruiksfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'O' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'sportfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'S' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'winkelfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'Wi' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'woonfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'W' ELSE '' END as FUNCTIES
+FROM BGR_VERBLIJFSOBJECT
+LEFT JOIN BGR_VERBLIJFSOBJECTGEBRUIK
+ON BGR_VERBLIJFSOBJECT.VOBJNR = BGR_VERBLIJFSOBJECTGEBRUIK.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_VERBLIJFSOBJECTGEBRUIK.VOBJVOLGNR
+LEFT JOIN 
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'VERBLIJFSOBJECT')BAG_GENSTATUSCODE
+    ON BGR_VERBLIJFSOBJECT.VOBJSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN BGR_V_VOBJGEBRCISI
+ON BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR
+LEFT JOIN REG_V_REGISTER
+ON BGR_VERBLIJFSOBJECT.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+JOIN
+    (SELECT BGR_VERBLIJFSOBJECTADRES.VOBJNR vbonr, BGR_VERBLIJFSOBJECTADRES.VOBJVOLGNR vbovolgnr, BGR_VERBLIJFSOBJECTADRES.ADRESNR adresnr,
+    BRA_ADRES.ADRESNR adrnr, BRA_ADRES.ADRVOLGNR adrvolgnr, BRA_ADRES.ADRESID adresid
+    FROM BGR_VERBLIJFSOBJECTADRES
+    JOIN BRA_ADRES
+    ON BGR_VERBLIJFSOBJECTADRES.ADRESNR = BRA_ADRES.ADRESNR
+    WHERE BRA_ADRES.DDEINDE IS NULL
+    AND BGR_VERBLIJFSOBJECTADRES.DDEINDE IS NULL
+    AND INDHOOFDADRES = 'J') BGR_VERBLIJFSOBJECTADRES
+    ON BGR_VERBLIJFSOBJECT.VOBJNR = BGR_VERBLIJFSOBJECTADRES.vbonr
+    AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_VERBLIJFSOBJECTADRES.vbovolgnr
+WHERE (BGR_VERBLIJFSOBJECT.VOBJNR, BGR_VERBLIJFSOBJECT.VOBJVOLGNR) IN
+      (SELECT BGR_VERBLIJFSOBJECT.VOBJNR, MAX(BGR_VERBLIJFSOBJECT.VOBJVOLGNR)
+      FROM BGR_VERBLIJFSOBJECT
+     WHERE BGR_VERBLIJFSOBJECT.DDMUTATIE &lt; '02-01-17'
+      GROUP BY BGR_VERBLIJFSOBJECT.VOBJNR)</t>
+  </si>
+  <si>
+    <t>LVBAG_VBO</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(VBO.IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+VBO.BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(VBO.BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || SUBSTR(VBO.BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || SUBSTR(VBO.BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+VBO.EINDDATUMTIJDVAKGELDIGHEID,
+CASE VBO.INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(VBO.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+VBO.DOCUMENTDATUM,
+LPAD(VBO.HOOFDADRES, 16, '0') AS HOOFDADRES,
+VBO.VERBLIJFSOBJECTSTATUS,
+VBO.OPPERVLAKTEVERBLIJFSOBJECT,
+VBO.GEBRUIKSDOELVERBLIJFSOBJECT,
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'bijeenkomstfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'B' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'celfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'C' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'gezondheidszorgfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'G' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'industriefunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'I' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'kantoorfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'K' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'logiesfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'L' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'onderwijsfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'On' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'overige gebruiksfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'O' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'sportfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'S' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'winkelfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'Wi' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'woonfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'W' ELSE '' END as FUNCTIES
+FROM 
+(
+  SELECT 
+  IDENTIFICATIE,
+  BEGINDATUMTIJDVAKGELDIGHEID,
+  EINDDATUMTIJDVAKGELDIGHEID,
+  AANDUIDINGRECORDINACTIEF,
+  INONDERZOEK,
+  DOCUMENTNUMMER,
+  DOCUMENTDATUM,
+  HOOFDADRES,
+  VERBLIJFSOBJECTSTATUS,
+  OPPERVLAKTEVERBLIJFSOBJECT,
+  GEBRUIKSDOELVERBLIJFSOBJECT
+    from LVBAG_VBO
+    group by   IDENTIFICATIE, BEGINDATUMTIJDVAKGELDIGHEID, EINDDATUMTIJDVAKGELDIGHEID, AANDUIDINGRECORDINACTIEF, INONDERZOEK, 
+    DOCUMENTNUMMER, DOCUMENTDATUM, HOOFDADRES, VERBLIJFSOBJECTSTATUS, OPPERVLAKTEVERBLIJFSOBJECT, GEBRUIKSDOELVERBLIJFSOBJECT
+) VBO</t>
+  </si>
+  <si>
     <t>actadr_DDSvoorPAR</t>
   </si>
   <si>
@@ -1643,7 +1828,7 @@
     <t>WASTEXL</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT 
+    <t>SELECT 
 adres.id_address,
 adres.bag_ado_id,
 adres.bag_nr_id,
@@ -1657,7 +1842,10 @@
 JOIN WASTEXL.adr_street straat  
 ON adres.street_id = straat.id_street
 JOIN WASTEXL.adr_place plaats
-ON straat.place_id = plaats.id_place </t>
+ON straat.place_id = plaats.id_place 
+where plaats.place_name not in ('Baaium', 'Baard', 'Bears', 'Boazum', 'Britswert', 'Easterein', 'Easterlittens', 'Easterwierrum', 'Hidaard', 'Hilaard', 'Hinnaard', 'Húns', 
+'Iens', 'Itens', 'Jellum', 'Jortwert', 'Kûbaard', 'Leons', 'Lytsewierrum', 'Mantgum', 'Reahûs', 'Rien', 'Spannum', 'Waaksens', 'Weidum', 'Winsum', 'Wiuwert', 'Wjelsryp', 'Wommels')
+order by plaats.place_name</t>
   </si>
   <si>
     <t>CORSA_DOC</t>
@@ -1671,7 +1859,7 @@
   -- poststuk.onderwerp AS beschrijving,
   (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKDOCBES') AS beschrijving,  
   (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKDOCTYP') AS typeomschrijving,
-  (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKVERT') AS aanduidingvertrouwelijk,	
+  (SELECT UPPER(waarde) FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKVERT') AS aanduidingvertrouwelijk,	
   (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'CMISCSFN') AS bestandsnaam,
   (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKDOCCR') AS creatiedatum,    
   (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKAUTEUR') AS auteur,
@@ -1683,10 +1871,77 @@
 AND (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKDOCID') &gt;= '19007352'</t>
   </si>
   <si>
+    <t>BAG_PAND</t>
+  </si>
+  <si>
+    <t>-- PANDEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT
+ DISTINCT
+BGR_PAND.PANDID,
+BGR_PAND.DDEINDE,
+BGR_PAND.INDONDERZOEK,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BGR_PAND.BOUWJAAR,
+BGR_PAND.PANDNR
+FROM BGR_PAND
+JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'PAND')BAG_GENSTATUSCODE
+ON BGR_PAND.PANDSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN REG_V_REGISTER
+ON BGR_PAND.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+WHERE (BGR_PAND.PANDNR, BGR_PAND.PANDVOLGNR) IN
+      (SELECT BGR_PAND.PANDNR, MAX(BGR_PAND.PANDVOLGNR)
+      FROM BGR_PAND
+      WHERE BGR_PAND.DDMUTATIE &lt; '02-01-17'
+      GROUP BY BGR_PAND.PANDNR)</t>
+  </si>
+  <si>
+    <t>BAG_LIGPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+BGR_LIGPLAATS.LIGPLAATSNR,
+BGR_LIGPLAATS.LIGPLAATSID,
+BGR_LIGPLAATS.DDEINDE,
+BGR_LIGPLAATS.INDONDERZOEK,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BGR_LIGPLAATSADRES.ADRESID,
+BAG_GENSTATUSCODE.STATUS_OMS
+FROM BGR_LIGPLAATS
+LEFT JOIN 
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'LIGPLAATS')BAG_GENSTATUSCODE
+    ON BGR_LIGPLAATS.LIGPLAATSSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN REG_V_REGISTER
+ON BGR_LIGPLAATS.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+JOIN
+    (SELECT BGR_LIGPLAATSADRES.LIGPLAATSNR lignr, BGR_LIGPLAATSADRES.LIGPLAATSVOLGNR ligvolgnr, BGR_LIGPLAATSADRES.ADRESNR adresnr,
+    BRA_ADRES.ADRESNR adrnr, BRA_ADRES.ADRVOLGNR adrvolgnr, BRA_ADRES.ADRESID adresid
+    FROM BGR_LIGPLAATSADRES
+    JOIN BRA_ADRES
+    ON BGR_LIGPLAATSADRES.ADRESNR = BRA_ADRES.ADRESNR
+    WHERE BRA_ADRES.DDEINDE IS NULL
+    AND BGR_LIGPLAATSADRES.DDEINDE IS NULL) BGR_LIGPLAATSADRES
+    ON BGR_LIGPLAATS.LIGPLAATSNR = BGR_LIGPLAATSADRES.lignr
+    AND BGR_LIGPLAATS.LIGPLAATSVOLGNR = BGR_LIGPLAATSADRES.ligvolgnr
+WHERE (BGR_LIGPLAATS.LIGPLAATSNR, BGR_LIGPLAATS.LIGPLAATSVOLGNR) IN
+      (SELECT BGR_LIGPLAATS.LIGPLAATSNR, MAX(BGR_LIGPLAATS.LIGPLAATSVOLGNR)
+      FROM BGR_LIGPLAATS
+      WHERE BGR_LIGPLAATS.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BGR_LIGPLAATS.LIGPLAATSNR)</t>
+  </si>
+  <si>
     <t>ZAAKSYST_DOC</t>
   </si>
   <si>
-    <t>SELECT 
+    <t>SELECT
 	Id AS conductor_id,	
 	-- TODO: zaakid  toevoegen
 	document.Documentidentificatie AS zaakdocumentid, 
@@ -1699,8 +1954,125 @@
 	document.auteur,
 	document.Formaat,
 	document.Taal
-FROM [RGBZ].[Document] document (nolock)
-where document.Documentidentificatie &gt;= 19007352</t>
+  FROM [PSWFZKS-Zakenmagazijn].[RGBZ].[Document]
+  where document.Documentidentificatie &gt;= 19007352</t>
+  </si>
+  <si>
+    <t>LVBAG_LIGPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+LPAD(HOOFDADRES, 16, '0') AS HOOFDADRES,
+LIGPLAATSSTATUS
+FROM LVBAG_LIGPLAATS</t>
+  </si>
+  <si>
+    <t>LVBAG_STANDPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+LPAD(HOOFDADRES, 16, '0') AS HOOFDADRES,
+STANDPLAATSSTATUS
+FROM LVBAG_STANDPLAATS</t>
+  </si>
+  <si>
+    <t>LVBAG_ADRES</t>
+  </si>
+  <si>
+    <t>select
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+NUMMERAANDUIDINGSTATUS,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+HUISNUMMER,
+HUISLETTER,
+HUISNUMMERTOEVOEGING,
+POSTCODE,
+OPENBARERUIMTENAAM,
+WOONPLAATSNAAM
+from LVBAG_ADRES</t>
+  </si>
+  <si>
+    <t>BAG_OPENBARERUIMTE</t>
+  </si>
+  <si>
+    <t>-- OPENBARE RUIMTES IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT 
+BRA_RUIMTE.RUIMTEID,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BRA_RUIMTE.DDEINDE,
+BRA_RUIMTE.INDONDERZOEK,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BRA_RUIMTE.RUIMTESTATUSCODE,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+LTRIM(RTRIM(htmlunescape(BRA_RUIMTE.RUIMTENAAM_D))) AS RUIMTENAAM,
+BRA_WOONPLAATS.WOONPLAATSID
+FROM (SELECT * FROM BRA_RUIMTE WHERE BRA_RUIMTE.DDEINDE IS NULL
+) BRA_RUIMTE
+LEFT JOIN REG_V_REGISTER
+ON BRA_RUIMTE.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+LEFT JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE WHERE ENTITEIT = 'RUIMTE')BAG_GENSTATUSCODE
+ON BRA_RUIMTE.RUIMTESTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN BRA_WOONPLAATS
+ON BRA_RUIMTE.WOONPLAATSNR = BRA_WOONPLAATS.WOONPLAATSNR
+WHERE (BRA_RUIMTE.RUIMTENR, BRA_RUIMTE.RUIVOLGNR) IN
+      (SELECT BRA_RUIMTE.RUIMTENR, MAX(BRA_RUIMTE.RUIVOLGNR)
+      FROM BRA_RUIMTE
+      GROUP BY BRA_RUIMTE.RUIMTENR)      
+AND BRA_WOONPLAATS.DDEINDE IS NULL</t>
+  </si>
+  <si>
+    <t>LVBAG_OPENBARERUIMTE</t>
+  </si>
+  <si>
+    <t>Select
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+OPENBARERUIMTENAAM,
+OPENBARERUIMTESTATUS,
+GERELATEERDEWOONPLAATS
+FROM LVBAG_OPENBARERUIMTE</t>
+  </si>
+  <si>
+    <t>LVBAG_WOONPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+WOONPlAATSNAAM,
+WOONPLAATSSTATUS,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK
+FROM LVBAG_WOONPLAATS</t>
   </si>
   <si>
     <t>X-DDS_NAP_oud</t>
@@ -1842,6 +2214,96 @@
 -- AND PBSPSN.A_NUMMER = 7306070678</t>
   </si>
   <si>
+    <t>BAG_voorBGT</t>
+  </si>
+  <si>
+    <t>SELECT 
+BGR_PAND.PANDID,
+--BGR_PANDGEOINFORMATIE.LIGGING,
+ROUND(SDO_GEOM.SDO_AREA(BGR_PANDGEOINFORMATIE.LIGGING, 0.005),2)  AS OPPERVLAKTE
+/*BGR_PAND.DDINGANG,
+BGR_PAND.DDEINDE,
+BGR_PAND.PANDSTATUSCODE,
+BGR_PAND.INDACTIEF,
+BGR_PAND.INDAUTHENTIEK,
+BGR_PAND.PANDNR,
+BGR_PAND.PANDVOLGNR,
+BGR_PANDGEOINFORMATIE.PANDNR,
+BGR_PANDGEOINFORMATIE.PANDVOLGNR
+*/
+FROM BGR_PAND
+JOIN BGR_PANDGEOINFORMATIE
+ON BGR_PAND.PANDNR = BGR_PANDGEOINFORMATIE.PANDNR
+AND BGR_PAND.PANDVOLGNR = BGR_PANDGEOINFORMATIE.PANDVOLGNR
+WHERE BGR_PAND.DDEINDE IS NULL
+AND BGR_PAND.INDAUTHENTIEK = 'J'
+--AND BGR_PAND.PANDID = '0683100000293981'</t>
+  </si>
+  <si>
+    <t>LVBAG_PAND</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+PANDSTATUS,
+BOUWJAAR
+FROM LVBAG_PAND</t>
+  </si>
+  <si>
+    <t>BAG_ADRES</t>
+  </si>
+  <si>
+    <t>-- ADRESSEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017'
+SELECT 
+BRA_ADRES.ADRESID,
+BRA_ADRES.DDEINDE,
+BRA_ADRES.INDONDERZOEK,
+BAG_GENSTATUSCODE.STATUS_OMS,
+--BRA_ADRES.ADRESSTATUSCODE,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BRA_ADRES.HUISNR,
+BRA_ADRES.HUISLT,
+BRA_ADRES.TOEVOEGING,
+BRA_ADRES.POSTC_N||BRA_ADRES.POSTC_A AS POSTCODE,
+BRA_ADRES.RUIMTENR,
+--BRA_ADRES.ADRESNR,
+--BRA_ADRES.ADRVOLGNR,
+--BRA_RUIMTE.RUIMTENAAM,
+--htmlunescape(BRA_RUIMTE.RUIMTENAAM_BOCO_D) AS RUIMTENAAM_BOCO_D,
+htmlunescape(BRA_RUIMTE.RUIMTENAAM_D) AS RUIMTENAAM,
+--BRA_RUIMTE.RUIMTENAAM_BOCO,
+BRA_RUIMTE.WOONPLAATSNR,
+--BRA_WOONPLAATS.WOONPLAATSNAAM,
+htmlunescape(BRA_WOONPLAATS.WOONPLAATSNAAM_D) AS WOONPLAATSNAAM
+FROM BRA_ADRES
+JOIN BRA_RUIMTE
+ON BRA_ADRES.RUIMTENR = BRA_RUIMTE.RUIMTENR
+JOIN BRA_WOONPLAATS
+ON BRA_RUIMTE.WOONPLAATSNR = BRA_WOONPLAATS.WOONPLAATSNR
+JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'ADRES')BAG_GENSTATUSCODE
+ON BRA_ADRES.ADRESSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN REG_V_REGISTER
+ON BRA_ADRES.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+WHERE BRA_WOONPLAATS.ddeinde IS NULL
+AND BRA_RUIMTE.DDEINDE IS NULL
+AND (BRA_ADRES.ADRESNR, BRA_ADRES.ADRVOLGNR) IN
+      (SELECT BRA_ADRES.ADRESNR, MAX(BRA_ADRES.ADRVOLGNR)
+      FROM BRA_ADRES
+      WHERE BRA_ADRES.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BRA_ADRES.ADRESNR)</t>
+  </si>
+  <si>
     <t>CORSA_GWVreg_org</t>
   </si>
   <si>
@@ -1889,6 +2351,75 @@
     AND gemeentecode.kenmerk_ID = 'StufGebP'
 WHERE SUBSTR(adres.RELATIE_ID, 0, 3) = 'SO.'
 and poststuk.U##POSTSTUK_ID like ('GWV%')   </t>
+  </si>
+  <si>
+    <t>DDS-NNP_voorpar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--Niet natuurlijke personen in DDS
+--PDDS
+--Voor Key2Parkeren
+SELECT
+dds_nnp_opslag.nnpnr                                                                                                              AS nnpnr, 
+-- is gelijk aan dds_sleutel bij key2parkeren                                                                     
+--dds_nnp_opslag.hdlnam                                                                                                           AS handelsnaam,  
+dds_tekensetconversie.teletex2unicode(dds_nnp_opslag.hdlnam_d)                                                                    AS handelsnaam,
+dds_nnp_opslag.stanam                                                                                                             AS stat_naam,
+dds_tekensetconversie.teletex2unicode(vest_adres.sttnam_d) || ' ' || vest_adres.huinum || vest_adres.huilet || vest_adres.huitvg  AS v_straat_nr,
+SUBSTR(vest_adres.pkdnum, 1, 4) || ' ' || SUBSTR(vest_adres.pkdnum, 5, 2) || ' ' || dds_tekensetconversie.teletex2unicode(vest_adres.wplnam)  AS vest_postcode_woonplaats,
+--dds_tekensetconversie.teletex2unicode(corr_adres.sttnam_d) || ' ' || corr_adres.huinum || corr_adres.huilet || corr_adres.huitvg  AS c_straat_nr,
+CASE WHEN corr_adres.sttnam_d = ' ' OR corr_adres.sttnam_d is null then 'Postbus' || ' ' || corr_adres.pbusnr ELSE vest_adres.sttnam || ' ' || vest_adres.huinum || vest_adres.huilet || vest_adres.huitvg END AS corr_straat_nr,
+--CASE WHEN corr_adres.sttnam_d = ' ' OR corr_adres.sttnam_d is null then 'Postbus' || ' ' || corr_adres.pbusnr end as testjeisgelukt,
+SUBSTR(corr_adres.pkdnum, 1, 4) || ' ' || SUBSTR(corr_adres.pkdnum, 5, 2) || ' ' || corr_adres.wplnam                             AS corr_postcode_woonplaats,
+corr_adres.pbusnr                                                                                                                 AS corr_postbusnr,
+corr_adres.regnum                                                                                                                 AS kvknummer
+FROM dds_nnp_opslag 
+JOIN (SELECT dds_nnp_opslag.nnpnr, dds_adr_opslag.adrnr, dds_adr_opslag.gemkde, dds_adr_opslag.huinum, dds_adr_opslag.huilet, dds_adr_opslag.huitvg, 
+dds_adr_opslag.pbusnr, dds_adr_opslag.pkdnum, dds_adr_opslag.wplnam, dds_adr_opslag.wplnam_u, dds_adr_opslag.obrnam, 
+dds_adr_opslag.obrnam_d, dds_adr_opslag.obrnam_u, dds_adr_opslag.sttnam, dds_adr_opslag.sttnam_u, 
+dds_tekensetconversie.teletex2unicode(dds_adr_opslag.sttnam_d) sttnam_d, dds_nnp_opslag.regnum 
+FROM dds_nnp_opslag
+      JOIN dds_adr_opslag
+      ON dds_nnp_opslag.adrnrcor = dds_adr_opslag.adrnr
+      --where dds_adr_opslag.gemkde =  '1900'
+      --and dds_nnp_opslag.nnpnr = '105563'
+      ) corr_adres
+ON dds_nnp_opslag.nnpnr  = corr_adres.nnpnr      
+JOIN 
+(SELECT * FROM dds_nnpadr_opslag
+JOIN dds_adr_opslag
+ON dds_nnpadr_opslag.adrnr = dds_adr_opslag.adrnr
+where dds_nnpadr_opslag.datend is null
+--where dds_adr_opslag.gemkde =  '1900'
+--and dds_nnp_opslag.datendnnp is null
+--and dds_nnpadr_opslag.nnpnr = '105563'
+) vest_adres
+ON corr_adres.nnpnr = vest_adres.nnpnr
+WHERE dds_nnp_opslag.datendnnp IS NULL
+--AND dds_nnp_opslag.nnpnr = '91188'
+ORDER BY dds_nnp_opslag.hdlnam </t>
+  </si>
+  <si>
+    <t>Key2PAR_NNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--Niet natuurlijke personen in Key2Parkeren
+--Gegevensbeheer
+select distinct 
+pvs_subject.DDS_SLEUTEL                 DDS_sleutel, 
+pvs_subject.OPGEMAAKTE_NAAM             Opgemaakte_naam, 
+pvs_subject.ADRES                       Adres,  
+pvs_subject.opgemaakte_naam             Naam,
+pvs_subject.adresregel1                 Straat_nr,
+pvs_subject.adresregel2                 Postc_Wplts
+ from PVS_VIMP_VERGUNNING@PPAR PVS_VIMP_VERGUNNING 
+ LEFT OUTER JOIN SUB_VIMP_SUBJECT@PPAR pvs_subject 
+    on PVS_VIMP_VERGUNNING.SUBJECTNUMMER  =  pvs_subject.SUBJECTNUMMER 
+    and PVS_VIMP_VERGUNNING.KODE_GEBRUIKER=pvs_subject.KODE_GEBRUIKER
+      where PVS_VIMP_VERGUNNING.KODE_STATUS='LV' 
+      and pvs_subject.INDICATIE_NAT_PERSOON='N'
+      --and pvs_subject.DDS_SLEUTEL = '100298'
+      order by DDS_sleutel asc nulls last      </t>
   </si>
   <si>
     <t>Gegevensmagazijn</t>
@@ -1969,6 +2500,117 @@
 )</t>
   </si>
   <si>
+    <t>DDS_NNP</t>
+  </si>
+  <si>
+    <t>--niet natuurlijke personen in DDS
+--Pdds
+select
+corr_adres.regnum kvknummer,
+dds_nnp_opslag.hdlnam,
+dds_nnp_opslag.stanam,
+vest_adres.sttnam vest_straatnaam,
+vest_adres.obrnam vest_openbareruimtenaam,
+vest_adres.huinum vest_nummer,
+vest_adres.huilet vest_letter,
+vest_adres.huitvg vest_toevoeging,
+vest_adres.pbusnr vest_postbusnr,
+vest_adres.pkdnum vest_postcode,
+vest_adres.wplnam vest_woonplaats,
+dds_tekensetconversie.teletex2unicode(corr_adres.sttnam_d) AS corr_straatnaam,
+dds_tekensetconversie.teletex2unicode(corr_adres.obrnam_d) AS corr_openbareruimtenaam,
+-- case (corr_adres.sttnam_d when null then 'Postbus' else corr_adres.sttnam_d end as straat, 
+corr_adres.huinum || corr_adres.pbusnr as corr_huisnummer ,
+corr_adres.huilet corr_letter,
+corr_adres.huitvg corr_toevoeging,
+--corr_adres.pbusnr corr_postbusnr,
+corr_adres.pkdnum corr_postcode,
+corr_adres.wplnam corr_woonplaats,
+dds_nnp_opslag.datoprnnp,
+dds_nnp_opslag.datendnnp,
+vest_adres.numsta,
+vest_adres.identtgo,
+vest_adres.wplnam_bag,
+vest_adres.gemkde 
+from  dds_nnp_opslag 
+join (select dds_nnp_opslag.nnpnr, dds_adr_opslag.adrnr, dds_adr_opslag.gemkde, dds_adr_opslag.huinum, dds_adr_opslag.huilet, dds_adr_opslag.huitvg, 
+dds_adr_opslag.pbusnr, dds_adr_opslag.pkdnum, dds_adr_opslag.wplnam, dds_adr_opslag.wplnam_u, dds_adr_opslag.obrnam, 
+dds_adr_opslag.obrnam_d, dds_adr_opslag.obrnam_u, dds_adr_opslag.sttnam, dds_adr_opslag.sttnam_u, dds_adr_opslag.sttnam_d, dds_nnp_opslag.regnum 
+from dds_nnp_opslag
+      join dds_adr_opslag
+      on dds_nnp_opslag.adrnrcor = dds_adr_opslag.adrnr
+      where dds_adr_opslag.gemkde =  '1900'
+      --and dds_nnp_opslag.nnpnr = '105563'
+      ) corr_adres
+on dds_nnp_opslag.nnpnr  = corr_adres.nnpnr      
+join 
+(select * from dds_nnpadr_opslag
+join dds_adr_opslag
+on dds_nnpadr_opslag.adrnr = dds_adr_opslag.adrnr
+where dds_adr_opslag.gemkde =  '1900'
+and dds_nnpadr_opslag.datend is null
+and dds_nnpadr_opslag.datend is null
+) vest_adres
+on corr_adres.nnpnr = vest_adres.nnpnr
+where dds_nnp_opslag.datendnnp is null
+--and corr_adres.regnum = '1143686'
+--order by corr_adres.regnum kvknummer</t>
+  </si>
+  <si>
+    <t>BGT</t>
+  </si>
+  <si>
+    <t>-- contactpersoon Wendy Hartog
+-- via other users - imgeo20
+-- PBGT1900
+SELECT 
+--IDENTIFICATIE,
+--TIJDSTIPREGISTRATIE,
+IDENTIFICATIEBAGPND,
+--GEOMETRIE,
+ROUND(OPPERVLAKTE,2) as OPPERVLAKTE
+FROM IMGEO20.PAND
+WHERE EINDTIJD IS NULL 
+AND EINDREGISTRATIE IS NULL</t>
+  </si>
+  <si>
+    <t>BAG_STANDPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+BGR_STANDPLAATS.STANDPLAATSNR,
+BGR_STANDPLAATS.STANDPLAATSID,
+BGR_STANDPLAATS.DDEINDE,
+BGR_STANDPLAATS.INDONDERZOEK,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BGR_STANDPLAATSADRES.ADRESID,
+BAG_GENSTATUSCODE.STATUS_OMS
+FROM BGR_STANDPLAATS
+LEFT JOIN 
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'STANDPLAATS')BAG_GENSTATUSCODE
+    ON BGR_STANDPLAATS.STANDPLAATSSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN REG_V_REGISTER
+ON BGR_STANDPLAATS.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+JOIN
+    (SELECT BGR_STANDPLAATSADRES.STANDPLAATSNR stanr, BGR_STANDPLAATSADRES.STANDPLAATSVOLGNR stavolgnr, BGR_STANDPLAATSADRES.ADRESNR adresnr,
+    BRA_ADRES.ADRESNR adrnr, BRA_ADRES.ADRVOLGNR adrvolgnr, BRA_ADRES.ADRESID adresid
+    FROM BGR_STANDPLAATSADRES
+    JOIN BRA_ADRES
+    ON BGR_STANDPLAATSADRES.ADRESNR = BRA_ADRES.ADRESNR
+    WHERE BRA_ADRES.DDEINDE IS NULL
+    AND BGR_STANDPLAATSADRES.DDEINDE IS NULL) BGR_STANDPLAATSADRES
+    ON BGR_STANDPLAATS.STANDPLAATSNR = BGR_STANDPLAATSADRES.stanr
+    AND BGR_STANDPLAATS.STANDPLAATSVOLGNR = BGR_STANDPLAATSADRES.stavolgnr
+WHERE (BGR_STANDPLAATS.STANDPLAATSNR, BGR_STANDPLAATS.STANDPLAATSVOLGNR) IN
+      (SELECT BGR_STANDPLAATS.STANDPLAATSNR, MAX(BGR_STANDPLAATS.STANDPLAATSVOLGNR)
+      FROM BGR_STANDPLAATS
+      WHERE BGR_STANDPLAATS.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BGR_STANDPLAATS.STANDPLAATSNR)</t>
+  </si>
+  <si>
     <t>CORSA_GWVreg</t>
   </si>
   <si>
@@ -2149,25 +2791,25 @@
     <t>DDS_OVL</t>
   </si>
   <si>
-    <t>SELECT
-DDS_PRS_OPSLAG.GESNAM,
-DDS_PRS_OPSLAG.GESNAM_U,
+    <t>--overleden personen in DDS
+--gegevensbeheer database
+SELECT
+DDS_PRS_OPSLAG.prsnr,
+DDS_PRS_OPSLAG.SOFNUM,
+DDS_PRS_OPSLAG.GESAND,
+dds_tekensetconversie.teletex2unicode@PDDS(DDS_PRS_OPSLAG.GESVOR) AS voornaam,
+DDS_PRS_OPSLAG.GESVLT,
+DDS_PRS_OPSLAG.GESVVG,
 dds_tekensetconversie.teletex2unicode@PDDS(DDS_PRS_OPSLAG.GESNAM_D) AS Geslachtsnaam,
-DDS_PRS_OPSLAG.GESNAM_D, 
-dds_tekensetconversie.teletex2unicode@PDDS(DDS_PRS_OPSLAG.GESVOR) AS voornaam,
-DDS_PRS_OPSLAG.GESVVG,
-DDS_PRS_OPSLAG.GESVLT,
-DDS_PRS_OPSLAG.GESVLT_U,
+DDS_PRS_OPSLAG.OPMAAK,
+DDS_PRS_OPSLAG.OVLDAT,
 DDS_PRS_OPSLAG.ADMNUM,
-DDS_PRS_OPSLAG.SOFNUM,
 DDS_PRS_OPSLAG.GEBDAT,
-DDS_PRS_OPSLAG.OVLDAT,
-DDS_PRS_OPSLAG.GEBLND,
-DDS_PRS_OPSLAG.GEMINS,
-DDS_PRS_OPSLAG.GESAND,
-DDS_PRS_OPSLAG.OPMAAK
+DDS_PRS_OPSLAG.GEMINS
 FROM DDS_PRS_OPSLAG@PDDS
-Where DDS_PRS_OPSLAG.OVLDAT is not null</t>
+Where DDS_PRS_OPSLAG.OVLDAT is not null
+and DDS_PRS_OPSLAG.GEMINS = '1900'
+--and DDS_PRS_OPSLAG.SOFNUM = '38941326'</t>
   </si>
   <si>
     <t>subjadres_GISvG</t>
@@ -2358,10 +3000,1358 @@
 AND GIS_V_VBO.DDEINDE IS NULL</t>
   </si>
   <si>
-    <t>Data Source=database;User Id=user;Password=password;</t>
-  </si>
-  <si>
-    <t>Server=server\production;Initial Catalog=database;Integrated Security=SSPI;</t>
+    <t>HARL_BAGWOZ_WOZ_WOZVERBLIJFSOBJECTEN</t>
+  </si>
+  <si>
+    <t>SELECT 
+  MIN(waaton.ident_woz) AS wozobject,   
+  COUNT(waaton.ident_woz) AS aantal,
+  --waaton.volgnr_tax, 
+  --waaton.ONDERDEEL,
+  vgwoz.STRAAT,
+  --vgwoz.HUISNR,
+  --vgwoz.HUISLT,
+  --vgwoz.TOEV,
+  vgwoz.POSTCODE,
+  vgvob.IDENT_BAG
+FROM
+  waaton
+JOIN vgwoz
+  ON vgwoz.IDENT = waaton.IDENT_WOZ 
+  AND vgwoz.DATUM_EINDE IS NULL
+JOIN vgvob
+  ON vgvob.IDENT = waaton.IDENT_VOB
+WHERE waaton.IDENT_VOB is not null
+AND waaton.VOLGNR_TAX = 
+(
+  SELECT MAX(volgnr) FROM waatax
+  WHERE ident_woz = waaton.ident_woz 
+)
+GROUP BY vgwoz.STRAAT, vgwoz.POSTCODE,vgvob.IDENT_BAG</t>
+  </si>
+  <si>
+    <t>HARL_BAGWOZ_BAG_VERBLIJFSOBJECTEN</t>
+  </si>
+  <si>
+    <t>-- vbo in de bag
+SELECT
+  GIS_V_VBO.VERBLIJFSOBJECTID,
+  GIS_V_VBO.OPPERVLAK,
+  GIS_V_VBO.STATUS_OMS,
+  GIS_V_VBO.RUIMTENAAM,
+  GIS_V_VBO.HUISNR,
+  GIS_V_VBO.HUISLT,
+  GIS_V_VBO.TOEVOEGING,
+  GIS_V_VBO.AANDUIDING,
+  GIS_V_VBO.POSTC_N || GIS_V_VBO.POSTC_A AS POSTCODE,
+  GIS_V_VBO.WOONPLAATS,
+  GIS_V_VBO.DOCUMENTNUMMER,
+  GIS_V_VBO.DDVASTSTELLING
+FROM GIS_V_VBO
+WHERE vobjstatuscode NOT IN (
+  00,        --Verblijfsobject gevormd
+  01,        --Niet gerealiseerd verblijfsobject
+  -- 02     Verblijfsobject in gebruik (niet ingemeten)
+  -- 03     Verblijfsobject in gebruik
+  04,        --Verblijfsobject ingetrokken
+  05         --Verblijfsobject buiten gebruik
+)
+AND GIS_V_VBO.DDEINDE IS NULL</t>
+  </si>
+  <si>
+    <t>HARL_BAGWOZ_BAG_BIJGEBOUWEN</t>
+  </si>
+  <si>
+    <t>-- bijgebouwen uit de bag
+SELECT 
+  GIS_V_PND.PANDID,
+  GIS_V_PND.BOUWJAAR,
+  GIS_V_PND.STATUS_OMS,
+  GIS_V_PND.DOCUMENTNUMMER,
+  GIS_V_PND.DDVASTSTELLING,
+  SDO_GEOM.SDO_AREA(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005) AS oppervlakte,
+  -- https://www.google.com/maps/@39.774769,-74.86084,19z
+  -- RD met het verkeerde SRID
+  -- SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005) AS rdpunt,
+  -- RD met het goede SRID (28992 = Amersfoort / RD)
+  /*
+  sdo_geometry(2001,28992,
+      sdo_point_type(SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x,
+      SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y, 
+      NULL), NULL, NULL) AS rdpunt,
+  */
+  /*
+  sdo_cs.transform(
+    sdo_geometry(2001,28992,
+        sdo_point_type(SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x,
+        SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y, 
+        NULL), NULL, NULL),
+      4326) as llpunt
+  */
+  /*
+  sdo_cs.transform(
+    sdo_geometry(2001,28992,
+        sdo_point_type(SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x,
+        SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y, 
+        NULL), NULL, NULL),
+      4326).SDO_POINT.x as longitude,
+  */
+  /*
+  sdo_cs.transform(
+    sdo_geometry(2001,28992,
+        sdo_point_type(SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x,
+        SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y, 
+        NULL), NULL, NULL),
+      4326).SDO_POINT.y as lattitude
+  */
+  -- https://www.google.nl/maps/@53.0109134,5.5846503,346m/data=!3m1!1e3
+  'https://www.google.nl/maps/@' 
+  || 
+    TO_CHAR(  
+      sdo_cs.transform(
+        sdo_geometry(2001,28992,
+            sdo_point_type(SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x,
+            SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y, 
+            NULL), NULL, NULL),
+          4326).SDO_POINT.y,
+    'FM00.0000000')
+  || 
+  ',' 
+  || 
+    TO_CHAR(
+      sdo_cs.transform(
+        sdo_geometry(2001,28992,
+            sdo_point_type(SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x,
+            SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y, 
+            NULL), NULL, NULL),
+          4326).SDO_POINT.x, 
+    'FM00.0000000')
+  || ',50m/data=!3m1!1e3' AS url,
+  -- http://geo.iszf.nl/geoserver/topp/wms?service=WMS&amp;version=1.1.0&amp;request=GetMap&amp;layers=topp:O10006_LUFO2014,topp:O10006_bag_swf_panden&amp;styles=&amp;bbox=173347.89727,561211.33924,174347.89727,562211.33924&amp;width=1000&amp;height=600&amp;srs=EPSG:28992&amp;format=application/openlayers
+  -- 'http://geo.iszf.nl/geoserver/topp/wms?service=WMS&amp;version=1.1.0&amp;request=GetMap&amp;layers=topp:O10006_LUFO2014,topp:O10006_bag_swf_panden&amp;styles=&amp;bbox='
+  'http://geo.iszf.nl/geoserver/topp/wms?service=WMS'|| chr(38) ||'version=1.1.0'|| chr(38) ||'request=GetMap'|| chr(38) ||'layers=topp:O10006_LUFO2014,topp:O10006_bag_swf_panden'|| chr(38) ||'styles='|| chr(38) ||'bbox='
+  ||  TO_CHAR((SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x) - 25, 'FM000000.000000')
+  || ','  
+  ||  TO_CHAR((SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y) - 25, 'FM000000.000000')
+  || ','  
+  ||  TO_CHAR((SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.x) + 25, 'FM000000.000000')
+  || ','  
+  ||  TO_CHAR((SDO_GEOM.SDO_POINTONSURFACE(BGR_V_PANDGEOINFORMATIE.LIGGING, 0.005).SDO_POINT.y) + 25, 'FM000000.000000')
+  || chr(38) ||'width=1000'|| chr(38) ||'height=600'|| chr(38) ||'srs=EPSG:28992'|| chr(38) ||'format=application/openlayers' AS geoserver,
+  -- 'http://iszfgeo05/nedbrowser/NBG_main.asp?default=Y&amp;action=NBG_SEARCH_GEO&amp;default_scale=500&amp;product=SWF%20BAG&amp;geo_relation=Kaart&amp;search_criterium=Pand&amp;parameters=BAG_NUMMER=0683100000289534
+  'http://iszfgeo05/nedbrowser/NBG_main.asp?default=Y' || chr(38) || 'action=NBG_SEARCH_GEO' || chr(38)
+  || 'default_scale=500' || chr(38) || 'product=SWF%20BAG' || chr(38) || 'geo_relation=Kaart' || chr(38) || 
+  'search_criterium=Pand' || chr(38) || 'parameters=BAG_NUMMER='
+  ||  TO_CHAR(GIS_V_PND.PANDID) as nedbrowser 
+FROM GIS_V_PND
+  JOIN COG_V_PANDZONDERVOBJ
+  ON COG_V_PANDZONDERVOBJ.PANDNR = GIS_V_PND.PANDNR
+JOIN 
+  BAGOWNER.BGR_V_PANDGEOINFORMATIE 
+  ON BGR_V_PANDGEOINFORMATIE.PANDNR = GIS_V_PND.PANDNR
+  AND BGR_V_PANDGEOINFORMATIE.PANDVOLGNR = GIS_V_PND.PANDVOLGNR
+  AND BGR_V_PANDGEOINFORMATIE.DDEINDE IS NULL
+WHERE PANDSTATUSCODE NOT IN (
+  01, --   Bouwvergunning verleend
+  02, --   Niet gerealiseerd pand
+  03, --   Bouw gestart
+  -- 04     Pand in gebruik (niet ingemeten)
+  -- 05     Pand in gebruik
+  -- 06     Sloopvergunning verleend
+  07, --   Pand gesloopt
+  08         -- Pand buiten gebruik  
+)  
+AND GIS_V_PND.DDEINDE IS NULL</t>
+  </si>
+  <si>
+    <t>PBS_PERSADR</t>
+  </si>
+  <si>
+    <t>SELECT 
+DISTINCT
+PBSPSN.REG_NR,
+PBSPSN.IDENT_PBT,
+PBSPSN.VOORLET_D,
+PBSPSN.NAMLET,
+PBSPSN.VVOEG_VVG,
+PBSPSN.GEBNAAM,
+PBSPSN.ZOEKNAAM,
+PBSPSN.NAAM_VERKORT,
+PBSPSN.NAAM_VERKORT_BL,
+LOWER(PBSPSN.NAAM_BL) AS NAAM_BL,
+LOWER(PBSPSN.NAAM) AS NAAM,
+PBSPSN.SOFI_NR,
+PBSPSN.A_NUMMER,
+PBSPSN.GEB_DATUM,
+SUBSTR(PBSPSN.GEB_DATUM, 1, 2) || SUBSTR(PBSPSN.GEB_DATUM, 4, 2) || SUBSTR(PBSPSN.GEB_DATUM, 7, 2) AS GEBOORTEDATUM,
+PBSPSN.HANDELSREGNR,
+PBSPSN.OVL_DATUM,
+PBSPSN.GESLACHT,
+PBSPBT.STRAAT,
+PBSPBT.HUISNR,
+PBSPBT.HUISLT,
+PBSPBT.HUISTV,
+PBSPBT.HUISAD,
+PBSPBT.POSTKODE,
+PBSPBT.WOONPLAATS,
+PBSPBT.LANDNAAM,
+PBSPBT.IDENT_PBT,
+PBSPBT.IDENT_WPL,
+PBSPBT.IDENT_TGO,
+PBSPBT.IDENT_NA,
+PBSPBT.IDENT_OBR
+FROM (SELECT * FROM VG.PBSPSN@PGVG
+WHERE PBSPSN.HANDELSREGNR IS NULL 
+OR PBSPSN.HANDELSREGNR = '0')PBSPSN
+JOIN VG.PBSPBT@PGVG PBSPBT
+ON PBSPSN.IDENT_PBT = PBSPBT.IDENT
+WHERE PBSPSN.OVL_DATUM IS NULL
+AND PBSPSN.SOFI_NR IS NOT NULL
+AND PBSPSN.RSIN IS NULL
+AND PBSPSN.SOORT_PERSOON = '1'</t>
+  </si>
+  <si>
+    <t>L_HARLINGEN</t>
+  </si>
+  <si>
+    <t>SELECT 
+  'pand' AS bagtype,
+  HAR_ispiegel_k_pand.pandid AS bagobjectid,
+  CASE WHEN NOT max(HAR_ISPIEGEL_K_WOZ.pandid) IS NULL THEN
+    1
+  ELSE
+    0
+  END AS bagreferentie
+FROM HAR_ispiegel_k_pand
+LEFT OUTER JOIN HAR_ISPIEGEL_K_WOZ
+  ON HAR_ISPIEGEL_K_WOZ.pandid = HAR_ispiegel_k_pand.pandid
+WHERE HAR_ispiegel_k_pand.verblijfsobjectid IS NULL
+GROUP BY HAR_ispiegel_k_pand.pandid
+-------------------
+UNION
+-------------------
+SELECT
+  'vbo',
+  HAR_ispiegel_k_pand.verblijfsobjectid,
+  CASE WHEN NOT max(HAR_ISPIEGEL_K_WOZ.adresseerbaarobjectid) IS NULL THEN
+    1
+  ELSE
+    0
+  END AS bagreferentie  
+FROM HAR_ispiegel_k_pand
+LEFT OUTER JOIN HAR_ISPIEGEL_K_WOZ
+  ON HAR_ISPIEGEL_K_WOZ.adresseerbaarobjectid = HAR_ispiegel_k_pand.verblijfsobjectid 
+WHERE NOT HAR_ispiegel_k_pand.verblijfsobjectid IS NULL
+GROUP BY HAR_ispiegel_k_pand.verblijfsobjectid</t>
+  </si>
+  <si>
+    <t>K_HARLINGEN</t>
+  </si>
+  <si>
+    <t>SELECT
+  HAR_ispiegel_k_woz.WOZOBJECTNUMMER,
+  CASE WHEN 
+    NOT MAX(HAR_ispiegel_k_woz.adresseerbaarobjectid) IS NULL 
+    OR 
+    NOT MAX(HAR_ispiegel_k_woz.pandid) IS NULL THEN
+    1
+  ELSE
+    0
+  END AS BAGREFERENTIE
+FROM HAR_ispiegel_k_woz
+WHERE HAR_ispiegel_k_woz.wozgebruikscode IN (10, 11, 12, 20, 21, 30, 31)
+GROUP BY HAR_ispiegel_k_woz.WOZOBJECTNUMMER</t>
+  </si>
+  <si>
+    <t>L_LITTENS</t>
+  </si>
+  <si>
+    <t>SELECT 
+  'pand' AS bagtype,
+  LIT_ispiegel_k_pand.pandid AS bagobjectid,
+  CASE WHEN NOT max(LIT_ISPIEGEL_K_WOZ.pandid) IS NULL THEN
+    1
+  ELSE
+    0
+  END AS bagreferentie
+FROM LIT_ispiegel_k_pand
+LEFT OUTER JOIN LIT_ISPIEGEL_K_WOZ
+  ON LIT_ISPIEGEL_K_WOZ.pandid = LIT_ispiegel_k_pand.pandid
+WHERE LIT_ispiegel_k_pand.verblijfsobjectid IS NULL
+GROUP BY LIT_ispiegel_k_pand.pandid
+-------------------
+UNION
+-------------------
+SELECT
+  'vbo',
+  LIT_ispiegel_k_pand.verblijfsobjectid,
+  CASE WHEN NOT max(LIT_ISPIEGEL_K_WOZ.adresseerbaarobjectid) IS NULL THEN
+    1
+  ELSE
+    0
+  END AS bagreferentie  
+FROM LIT_ispiegel_k_pand
+LEFT OUTER JOIN LIT_ISPIEGEL_K_WOZ
+  ON LIT_ISPIEGEL_K_WOZ.adresseerbaarobjectid = LIT_ispiegel_k_pand.verblijfsobjectid 
+WHERE NOT LIT_ispiegel_k_pand.verblijfsobjectid IS NULL
+GROUP BY LIT_ispiegel_k_pand.verblijfsobjectid</t>
+  </si>
+  <si>
+    <t>K_LITTENS</t>
+  </si>
+  <si>
+    <t>SELECT
+  LIT_ispiegel_k_woz.WOZOBJECTNUMMER,
+  CASE WHEN 
+    NOT MAX(LIT_ispiegel_k_woz.adresseerbaarobjectid) IS NULL 
+    OR 
+    NOT MAX(LIT_ispiegel_k_woz.pandid) IS NULL THEN
+    1
+  ELSE
+    0
+  END AS BAGREFERENTIE
+FROM LIT_ispiegel_k_woz
+WHERE LIT_ispiegel_k_woz.wozgebruikscode IN (10, 11, 12, 20, 21, 30, 31)
+GROUP BY LIT_ispiegel_k_woz.WOZOBJECTNUMMER</t>
+  </si>
+  <si>
+    <t>DDS_PRS</t>
+  </si>
+  <si>
+    <t>SELECT 
+DDS_PRS_OPSLAG.GESNAM,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_PRS_OPSLAG.GESNAM_D) GESNAM_D,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_PRS_OPSLAG.GESVOR) GESVOR,
+DDS_PRS_OPSLAG.GESVVG,
+DDS_PRS_OPSLAG.INDBASISPERSOON,
+DDS_PRS_OPSLAG.GESVLT,
+DDS_PRS_OPSLAG.ADMNUM,
+DDS_PRS_OPSLAG.SOFNUM,
+DDS_PRS_OPSLAG.GEBDAT,
+DDS_PRS_OPSLAG.OVLDAT,
+DDS_PRS_OPSLAG.GEBGMN,
+DDS_PRS_OPSLAG.GEMINS,
+DDS_PRS_OPSLAG.GESAND,
+DDS_PRS_OPSLAG.OPMAAK,
+DDS_ADR_OPSLAG.STTNAM,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_ADR_OPSLAG.STTNAM_D) STTNAM_D,
+DDS_ADR_OPSLAG.OBRNAM,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_ADR_OPSLAG.OBRNAM_D) OBRNAM_D,
+DDS_ADR_OPSLAG.HUINUM,
+DDS_ADR_OPSLAG.HUITVG,
+DDS_ADR_OPSLAG.HUILET,
+DDS_ADR_OPSLAG.PKDNUM,
+DDS_ADR_OPSLAG.WPLNAM,
+DDS_ADR_OPSLAG.IDENTNA,
+DDS_ADR_OPSLAG.IDENTTGO,
+DDS_ADR_OPSLAG.GEMKDE
+FROM DDS_PRS_OPSLAG
+JOIN (SELECT * FROM DDS_PRSADR_OPSLAG
+      WHERE DATEND IS NULL
+      AND SRTADR = 'I') DDS_PRSADR_OPSLAG
+ON DDS_PRS_OPSLAG.PRSNR = DDS_PRSADR_OPSLAG.PRSNR
+JOIN DDS_ADR_OPSLAG
+ON DDS_PRSADR_OPSLAG.ADRNR = DDS_ADR_OPSLAG.ADRNR
+WHERE DDS_PRS_OPSLAG.INDBASISPERSOON = 'J'
+AND DDS_PRS_OPSLAG.OVLDAT IS NULL</t>
+  </si>
+  <si>
+    <t>DDS_PRS_LITTENS</t>
+  </si>
+  <si>
+    <t>SELECT 
+DDS_PRS_OPSLAG.GESNAM,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_PRS_OPSLAG.GESNAM_D) GESNAM_D,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_PRS_OPSLAG.GESVOR) GESVOR,
+DDS_PRS_OPSLAG.GESVVG,
+DDS_PRS_OPSLAG.INDBASISPERSOON,
+DDS_PRS_OPSLAG.GESVLT,
+DDS_PRS_OPSLAG.ADMNUM,
+DDS_PRS_OPSLAG.SOFNUM,
+DDS_PRS_OPSLAG.GEBDAT,
+DDS_PRS_OPSLAG.OVLDAT,
+DDS_PRS_OPSLAG.GEBGMN,
+DDS_PRS_OPSLAG.GEMINS,
+DDS_PRS_OPSLAG.GESAND,
+DDS_PRS_OPSLAG.OPMAAK,
+DDS_ADR_OPSLAG.STTNAM,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_ADR_OPSLAG.STTNAM_D) STTNAM_D,
+DDS_ADR_OPSLAG.OBRNAM,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_ADR_OPSLAG.OBRNAM_D) OBRNAM_D,
+DDS_ADR_OPSLAG.HUINUM,
+DDS_ADR_OPSLAG.HUITVG,
+DDS_ADR_OPSLAG.HUILET,
+DDS_ADR_OPSLAG.PKDNUM,
+DDS_TEKENSETCONVERSIE.TELETEX2UNICODE (DDS_ADR_OPSLAG.WPLNAM) WPLNAM,
+DDS_ADR_OPSLAG.IDENTNA,
+DDS_ADR_OPSLAG.IDENTTGO,
+DDS_ADR_OPSLAG.GEMKDE
+FROM DDS_PRS_OPSLAG
+JOIN (SELECT * FROM DDS_PRSADR_OPSLAG
+      WHERE DATEND IS NULL
+      AND SRTADR = 'I') DDS_PRSADR_OPSLAG
+ON DDS_PRS_OPSLAG.PRSNR = DDS_PRSADR_OPSLAG.PRSNR
+JOIN DDS_ADR_OPSLAG
+ON DDS_PRSADR_OPSLAG.ADRNR = DDS_ADR_OPSLAG.ADRNR
+WHERE DDS_PRS_OPSLAG.INDBASISPERSOON = 'J'
+AND DDS_PRS_OPSLAG.OVLDAT IS NULL</t>
+  </si>
+  <si>
+    <t>DDS_PRS_HARLINGEN</t>
+  </si>
+  <si>
+    <t>LIT_LVBAG_ADRES</t>
+  </si>
+  <si>
+    <t>select
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+NUMMERAANDUIDINGSTATUS,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+HUISNUMMER,
+HUISLETTER,
+HUISNUMMERTOEVOEGING,
+POSTCODE,
+OPENBARERUIMTENAAM,
+WOONPLAATSNAAM
+from LIT_LVBAG_ADRES</t>
+  </si>
+  <si>
+    <t>LIT_LVBAG_LIGPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+LPAD(HOOFDADRES, 16, '0') AS HOOFDADRES,
+LIGPLAATSSTATUS
+FROM LIT_LVBAG_LIGPLAATS</t>
+  </si>
+  <si>
+    <t>LIT_LVBAG_OPENBARERUIMTE</t>
+  </si>
+  <si>
+    <t>Select
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+OPENBARERUIMTENAAM,
+OPENBARERUIMTESTATUS,
+GERELATEERDEWOONPLAATS
+FROM LIT_LVBAG_OPENBARERUIMTE</t>
+  </si>
+  <si>
+    <t>LIT_LVBAG_PAND</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+PANDSTATUS,
+BOUWJAAR
+FROM LIT_LVBAG_PAND</t>
+  </si>
+  <si>
+    <t>LIT_LVBAG_STANDPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+LPAD(HOOFDADRES, 16, '0') AS HOOFDADRES,
+STANDPLAATSSTATUS
+FROM LIT_LVBAG_STANDPLAATS</t>
+  </si>
+  <si>
+    <t>LIT_LVBAG_VBO</t>
+  </si>
+  <si>
+    <t>SELECT 
+LPAD(VBO.IDENTIFICATIE, 16, '0') AS IDENTIFICATIE,
+VBO.BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(VBO.BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || SUBSTR(VBO.BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || SUBSTR(VBO.BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+VBO.EINDDATUMTIJDVAKGELDIGHEID,
+CASE VBO.INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK,
+LTRIM(RTRIM(VBO.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+VBO.DOCUMENTDATUM,
+LPAD(VBO.HOOFDADRES, 16, '0') AS HOOFDADRES,
+VBO.VERBLIJFSOBJECTSTATUS,
+VBO.OPPERVLAKTEVERBLIJFSOBJECT,
+VBO.GEBRUIKSDOELVERBLIJFSOBJECT,
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'bijeenkomstfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'B' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'celfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'C' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'gezondheidszorgfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'G' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'industriefunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'I' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'kantoorfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'K' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'logiesfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'L' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'onderwijsfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'On' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'overige gebruiksfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'O' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'sportfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'S' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'winkelfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'Wi' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM LIT_LVBAG_VBO functie WHERE GEBRUIKSDOELVERBLIJFSOBJECT = 'woonfunctie' AND FUNCTIE.IDENTIFICATIE = VBO.IDENTIFICATIE) &gt; 0 THEN 'W' ELSE '' END as FUNCTIES
+FROM 
+(
+  SELECT 
+  IDENTIFICATIE,
+  BEGINDATUMTIJDVAKGELDIGHEID,
+  EINDDATUMTIJDVAKGELDIGHEID,
+  AANDUIDINGRECORDINACTIEF,
+  INONDERZOEK,
+  DOCUMENTNUMMER,
+  DOCUMENTDATUM,
+  HOOFDADRES,
+  VERBLIJFSOBJECTSTATUS,
+  OPPERVLAKTEVERBLIJFSOBJECT,
+  GEBRUIKSDOELVERBLIJFSOBJECT
+    from LIT_LVBAG_VBO
+    group by   IDENTIFICATIE, BEGINDATUMTIJDVAKGELDIGHEID, EINDDATUMTIJDVAKGELDIGHEID, AANDUIDINGRECORDINACTIEF, INONDERZOEK, 
+    DOCUMENTNUMMER, DOCUMENTDATUM, HOOFDADRES, VERBLIJFSOBJECTSTATUS, OPPERVLAKTEVERBLIJFSOBJECT, GEBRUIKSDOELVERBLIJFSOBJECT
+) VBO</t>
+  </si>
+  <si>
+    <t>LIT_LVBAG_WOONPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+IDENTIFICATIE,
+BEGINDATUMTIJDVAKGELDIGHEID,
+SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 9, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 6, 2) || '-' || SUBSTR(BEGINDATUMTIJDVAKGELDIGHEID, 3, 2) AS DDINGANG,
+EINDDATUMTIJDVAKGELDIGHEID,
+LTRIM(RTRIM(DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+DOCUMENTDATUM,
+WOONPlAATSNAAM,
+WOONPLAATSSTATUS,
+CASE INONDERZOEK WHEN 'f' THEN 'N' ELSE 'J' END AS INONDERZOEK
+FROM LIT_LVBAG_WOONPLAATS</t>
+  </si>
+  <si>
+    <t>LIT_BAG_ADRES</t>
+  </si>
+  <si>
+    <t>-- ADRESSEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT 
+BRA_ADRES.ADRESID,
+BRA_ADRES.DDEINDE,
+BRA_ADRES.INDONDERZOEK,
+BAG_GENSTATUSCODE.STATUS_OMS,
+--BRA_ADRES.ADRESSTATUSCODE,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BRA_ADRES.HUISNR,
+BRA_ADRES.HUISLT,
+BRA_ADRES.TOEVOEGING,
+BRA_ADRES.POSTC_N||BRA_ADRES.POSTC_A AS POSTCODE,
+BRA_ADRES.RUIMTENR,
+--BRA_ADRES.ADRESNR,
+--BRA_ADRES.ADRVOLGNR,
+--BRA_RUIMTE.RUIMTENAAM,
+--htmlunescape(BRA_RUIMTE.RUIMTENAAM_BOCO_D) AS RUIMTENAAM_BOCO_D,
+htmlunescape(BRA_RUIMTE.RUIMTENAAM_D) AS RUIMTENAAM,
+--BRA_RUIMTE.RUIMTENAAM_BOCO,
+BRA_RUIMTE.WOONPLAATSNR,
+--BRA_WOONPLAATS.WOONPLAATSNAAM,
+htmlunescape(BRA_WOONPLAATS.WOONPLAATSNAAM_D) AS WOONPLAATSNAAM
+FROM BRA_ADRES
+JOIN BRA_RUIMTE
+ON BRA_ADRES.RUIMTENR = BRA_RUIMTE.RUIMTENR
+JOIN BRA_WOONPLAATS
+ON BRA_RUIMTE.WOONPLAATSNR = BRA_WOONPLAATS.WOONPLAATSNR
+JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'ADRES')BAG_GENSTATUSCODE
+ON BRA_ADRES.ADRESSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN REG_V_REGISTER
+ON BRA_ADRES.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+WHERE BRA_WOONPLAATS.ddeinde IS NULL
+AND BRA_RUIMTE.DDEINDE IS NULL
+AND (BRA_ADRES.ADRESNR, BRA_ADRES.ADRVOLGNR) IN
+      (SELECT BRA_ADRES.ADRESNR, MAX(BRA_ADRES.ADRVOLGNR)
+      FROM BRA_ADRES
+      WHERE BRA_ADRES.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BRA_ADRES.ADRESNR)</t>
+  </si>
+  <si>
+    <t>LIT_BAG_LIGPLAATS</t>
+  </si>
+  <si>
+    <t>SELECT 
+BGR_LIGPLAATS.LIGPLAATSNR,
+BGR_LIGPLAATS.LIGPLAATSID,
+BGR_LIGPLAATS.DDEINDE,
+BGR_LIGPLAATS.INDONDERZOEK,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BGR_LIGPLAATSADRES.ADRESID,
+BAG_GENSTATUSCODE.STATUS_OMS
+FROM BGR_LIGPLAATS
+LEFT JOIN 
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'LIGPLAATS')BAG_GENSTATUSCODE
+    ON BGR_LIGPLAATS.LIGPLAATSSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN REG_V_REGISTER
+ON BGR_LIGPLAATS.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+JOIN
+    (SELECT BGR_LIGPLAATSADRES.LIGPLAATSNR lignr, BGR_LIGPLAATSADRES.LIGPLAATSVOLGNR ligvolgnr, BGR_LIGPLAATSADRES.ADRESNR adresnr,
+    BRA_ADRES.ADRESNR adrnr, BRA_ADRES.ADRVOLGNR adrvolgnr, BRA_ADRES.ADRESID adresid
+    FROM BGR_LIGPLAATSADRES
+    JOIN BRA_ADRES
+    ON BGR_LIGPLAATSADRES.ADRESNR = BRA_ADRES.ADRESNR
+    WHERE BRA_ADRES.DDEINDE IS NULL
+    AND BGR_LIGPLAATSADRES.DDEINDE IS NULL) BGR_LIGPLAATSADRES
+    ON BGR_LIGPLAATS.LIGPLAATSNR = BGR_LIGPLAATSADRES.lignr
+    AND BGR_LIGPLAATS.LIGPLAATSVOLGNR = BGR_LIGPLAATSADRES.ligvolgnr
+WHERE (BGR_LIGPLAATS.LIGPLAATSNR, BGR_LIGPLAATS.LIGPLAATSVOLGNR) IN
+      (SELECT BGR_LIGPLAATS.LIGPLAATSNR, MAX(BGR_LIGPLAATS.LIGPLAATSVOLGNR)
+      FROM BGR_LIGPLAATS
+      WHERE BGR_LIGPLAATS.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BGR_LIGPLAATS.LIGPLAATSNR)</t>
+  </si>
+  <si>
+    <t>CORSA_ZAKEN</t>
+  </si>
+  <si>
+    <t>-- documenten
+SELECT DISTINCT
+  DOSSIER.DOSSIER_ID AS corsa_id,
+  --DOSS_DOSS.DOSSIER1_ID,
+  --DOSS_DOSS.DOSSIER2_ID,
+  DOSS_DOSS.DAT_AAN,
+  DOSSIER.DOSSIER_OMS,
+  DOSSIER.DAT_AAN,
+  -- TODO: zaakid  toevoegen
+  (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKNR') AS ZKNR,  
+  -- poststuk.onderwerp AS beschrijving,
+  (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'CMISNAME') AS CMISNAME,  
+  (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKBSN') AS ZKBSN,	
+  (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKGESLNM') AS ZKGESLNM,
+  (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKSTARTD') AS DDSTART,
+  (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKEINDD') AS DDEINDE,  
+  --, (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'PATHDOS') AS PATHDOS,
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKRSTTOM') AS ZKRSTTOM,
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'REPIDFOL') AS REPIDFOL,
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKBASTYP') AS ZKBASTYP,
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKACOTID') AS ZKACOTID,	
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKNIVEAU') AS ZKNIVEAU,    
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKDEELZK') AS ZKDEELZK,
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKREGDAT') AS ZKREGDAT,
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'ZKARCHNM') AS ZKARCHNM,
+  --(SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = DOSSIER.DOSSIER_ID AND U##OBJECT_TYPE = 'D' AND U##kenmerk_ID = 'CMISTYPD') AS CMISTYPD,
+  DOSSIER.GEBR_AAN,
+  DOSSIER.GEBR_BEW,
+  DOSSIER.U##SDOSS_ID
+FROM CORSA_PROD.DOSSIER
+JOIN CORSA_PROD.OBJ_ZOEK
+ON DOSSIER.DOSSIER_ID = OBJ_ZOEK.OBJECT_ID
+JOIN CORSA_PROD.DOSS_DOSS
+ON DOSSIER.DOSSIER_ID = DOSS_DOSS.DOSSIER1_ID
+OR DOSSIER.DOSSIER_ID = DOSS_DOSS.DOSSIER2_ID
+WHERE DOSSIER.U##SDOSS_ID = 'ZAAKDOSS' 
+--AND DOSSIER.DOSSIER_ID = 'ZD00019886'
+--WHERE poststuk.soort_id = 'ZAAKDOCS'
+-- eerste betrouwbare brondocumenten
+--AND (SELECT waarde FROM CORSA_PROD.OBJ_KENM WHERE OBJ_KENM.U##OBJECT_ID = poststuk.poststuk_id AND U##OBJECT_TYPE = 'S' AND U##kenmerk_ID = 'ZKDOCID') &gt;= '19007352'</t>
+  </si>
+  <si>
+    <t>ZAAKSYST_ZAKEN</t>
+  </si>
+  <si>
+    <t>SELECT 
+      [ZaaktypeCode]
+      ,[Identificatie]
+      ,[ZaaktypeOmschrijving]
+      ,[Registratiedatum]
+      ,[Startdatum]
+      ,[Einddatum]
+      ,[Omschrijving]
+      ,[Zaakniveau]
+      ,[Betalingsindicatie]
+      ,[IndicatieOpschorting]
+      ,[DatumVernietigingDossier]
+      ,[StatusIDLaatsteStatus]
+      ,[RolIDInitiator]
+      ,[RolIDLaatsteUitvoerder]
+  FROM [PSWFZKS-Zakenmagazijn].[RGBZ].[Zaak]
+  WHERE Identificatie &gt;= 19001000</t>
+  </si>
+  <si>
+    <t>LIT_BAG_OPENBARERUIMTE</t>
+  </si>
+  <si>
+    <t>-- OPENBARE RUIMTES IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT 
+BRA_RUIMTE.RUIMTEID,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BRA_RUIMTE.DDEINDE,
+BRA_RUIMTE.INDONDERZOEK,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BRA_RUIMTE.RUIMTESTATUSCODE,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+LTRIM(RTRIM(htmlunescape(BRA_RUIMTE.RUIMTENAAM_D))) AS RUIMTENAAM,
+BRA_WOONPLAATS.WOONPLAATSID
+FROM (SELECT * FROM BRA_RUIMTE WHERE BRA_RUIMTE.DDEINDE IS NULL) BRA_RUIMTE
+LEFT JOIN REG_V_REGISTER
+ON BRA_RUIMTE.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+LEFT JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE WHERE ENTITEIT = 'RUIMTE')BAG_GENSTATUSCODE
+ON BRA_RUIMTE.RUIMTESTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN BRA_WOONPLAATS
+ON BRA_RUIMTE.WOONPLAATSNR = BRA_WOONPLAATS.WOONPLAATSNR
+WHERE (BRA_RUIMTE.RUIMTENR, BRA_RUIMTE.RUIVOLGNR) IN
+      (SELECT BRA_RUIMTE.RUIMTENR, MAX(BRA_RUIMTE.RUIVOLGNR)
+      FROM BRA_RUIMTE
+      WHERE BRA_RUIMTE.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BRA_RUIMTE.RUIMTENR)      
+AND BRA_WOONPLAATS.DDEINDE IS NULL</t>
+  </si>
+  <si>
+    <t>LIT_BAG_PAND</t>
+  </si>
+  <si>
+    <t>-- PANDEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT
+ DISTINCT
+BGR_PAND.PANDID,
+BGR_PAND.DDEINDE,
+BGR_PAND.INDONDERZOEK,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BGR_PAND.BOUWJAAR,
+BGR_PAND.PANDNR
+FROM BGR_PAND
+JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'PAND')BAG_GENSTATUSCODE
+ON BGR_PAND.PANDSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN REG_V_REGISTER
+ON BGR_PAND.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+WHERE (BGR_PAND.PANDNR, BGR_PAND.PANDVOLGNR) IN
+      (SELECT BGR_PAND.PANDNR, MAX(BGR_PAND.PANDVOLGNR)
+      FROM BGR_PAND
+      WHERE BGR_PAND.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BGR_PAND.PANDNR)</t>
+  </si>
+  <si>
+    <t>BAG_WOONPLAATS</t>
+  </si>
+  <si>
+    <t>-- WOONPLAATSEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT 
+BRA_WOONPLAATS.WOONPLAATSID,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BRA_WOONPLAATS.DDEINDE,
+BRA_WOONPLAATS.INDONDERZOEK,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BRA_WOONPLAATS.WOONPLAATSSTATUSCODE,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+htmlunescape(BRA_WOONPlAATS.WOONPLAATSNAAM_D) AS WOONPLAATSNAAM,
+BRA_WOONPLAATS.GEMEENTENR
+FROM BRA_WOONPLAATS
+LEFT JOIN REG_V_REGISTER
+ON BRA_WOONPlAATS.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+LEFT JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE WHERE ENTITEIT = 'WOONPLAATS')BAG_GENSTATUSCODE
+ON BRA_WOONPLAATS.WOONPLAATSSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+WHERE (BRA_WOONPLAATS.WOONPLAATSNR, BRA_WOONPLAATS.WPLVOLGNR) IN
+      (SELECT BRA_WOONPLAATS.WOONPLAATSNR, MAX(BRA_WOONPLAATS.WPLVOLGNR)
+      FROM BRA_WOONPLAATS
+      WHERE BRA_WOONPLAATS.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BRA_WOONPLAATS.WOONPLAATSNR)      
+AND BRA_WOONPLAATS.DDEINDE IS NULL
+AND BRA_WOONPLAATS.INDAUTHENTIEK = 'J'</t>
+  </si>
+  <si>
+    <t>BAG_LITTENS</t>
+  </si>
+  <si>
+    <t>-- verblijfsobjecten --
+SELECT
+  'verblijfsobject' AS ADRESTYPE,
+  htmlunescape(bra_ruimte.ruimtenaam_d) AS RUIMTENAAM,
+  bra_ruimte.ruimtenaam AS RUIMTENAAM_SIMPEL,
+  htmlunescape(bra_ruimte.ruimtenaam_boco_d) AS RUIMTENAAM_BOCO,
+  UPPER(bra_ruimte.ruimtenaam_boco) AS RUIMTENAAM_USIMPEL,
+  UPPER(htmlunescape(bra_ruimte.ruimtenaam_d)) AS RUIMTENAAM_UPPER,
+  bra_adres.huisnr        AS HUISNR,
+  bra_adres.huislt        AS HUISLT,
+  bra_adres.toevoeging    AS TOEVOEGING,
+  bra_adres.postc_n || bra_adres.postc_a AS POSTCODE,
+  htmlunescape(bra_woonplaats.woonplaatsnaam_d) AS WOONPLAATSNAAM,
+  bra_woonplaats.woonplaatsnaam  AS WOONPLAATSNAAM_SIMPEL,
+  UPPER(bra_woonplaats.woonplaatsnaam)  AS WOONPLAATSNAAM_USIMPEL,  
+  bra_adres.adresid       AS BAG_NUMMERAANDUIDING_ID,
+  bgr_verblijfsobject.verblijfsobjectid   AS BAG_VERBLIJFSOBJECT_ID
+FROM 
+  BAGOWNER.BRA_ADRES       bra_adres,
+  BAGOWNER.BRA_RUIMTE      bra_ruimte,
+  BAGOWNER.BRA_WOONPLAATS  bra_woonplaats,
+  BAGOWNER.BGR_VERBLIJFSOBJECTADRES bgr_verblijfsobjectadres,
+  BAGOWNER.BGR_VERBLIJFSOBJECT bgr_verblijfsobject
+WHERE bra_adres.ddeinde               IS NULL
+AND bra_adres.indactief               = 'J'
+AND bra_ruimte.ddeinde                IS NULL
+AND bra_ruimte.indactief              = 'J'
+AND bra_woonplaats.ddeinde            IS NULL
+AND bra_woonplaats.indactief          = 'J'
+AND bra_adres.indauthentiek           = 'J'
+AND bgr_verblijfsobject.ddeinde       IS NULL
+AND bgr_verblijfsobject.indactief     = 'J'
+AND bgr_verblijfsobject.indauthentiek = 'J' 
+AND bgr_verblijfsobjectadres.indhoofdadres = 'J'
+AND bra_adres.ruimtenr                = bra_ruimte.ruimtenr
+AND bra_ruimte.woonplaatsnr           = bra_woonplaats.woonplaatsnr
+AND bra_adres.adresnr                 = bgr_verblijfsobjectadres.adresnr
+AND bgr_verblijfsobject.vobjnr        = bgr_verblijfsobjectadres.vobjnr
+AND bgr_verblijfsobject.vobjvolgnr    = bgr_verblijfsobjectadres.vobjvolgnr
+-- ligplaatsen --
+UNION SELECT 
+  'ligplaats',
+  htmlunescape(bra_ruimte.ruimtenaam_d) AS RUIMTENAAM,
+  bra_ruimte.ruimtenaam AS RUIMTENAAM_SIMPEL,
+  htmlunescape(bra_ruimte.ruimtenaam_boco_d) AS RUIMTENAAM_BOCO,
+  UPPER(bra_ruimte.ruimtenaam_boco) AS RUIMTENAAM_USIMPEL,
+  UPPER(htmlunescape(bra_ruimte.ruimtenaam_d)) AS RUIMTENAAM_UPPER,
+  bra_adres.huisnr,
+  bra_adres.huislt,
+  bra_adres.toevoeging,
+  bra_adres.postc_n || bra_adres.postc_a, 
+  htmlunescape(bra_woonplaats.woonplaatsnaam_d) AS WOONPLAATSNAAM,
+  bra_woonplaats.woonplaatsnaam AS WOONPLAATSNAAM_SIMPEL,
+  UPPER(bra_woonplaats.woonplaatsnaam)  AS WOONPLAATSNAAM_USIMPEL,
+  bra_adres.adresid,
+  bgr_ligplaats.ligplaatsid
+FROM
+  BAGOWNER.BRA_ADRES       bra_adres,
+  BAGOWNER.BRA_RUIMTE      bra_ruimte,  
+  BAGOWNER.BRA_WOONPLAATS  bra_woonplaats,
+  BAGOWNER.BGR_LIGPLAATSADRES bgr_ligplaatsadres,
+  BAGOWNER.BGR_LIGPLAATS bgr_ligplaats
+WHERE bra_adres.ddeinde        IS NULL
+AND bra_adres.indactief           = 'J'
+AND bra_ruimte.ddeinde           IS NULL
+AND bra_ruimte.indactief          = 'J'
+AND bra_woonplaats.ddeinde       IS NULL
+AND bra_woonplaats.indactief      = 'J'
+AND bra_adres.indauthentiek       = 'J'
+AND bgr_ligplaats.ddeinde        IS NULL
+AND bgr_ligplaats.indactief       = 'J'
+AND bgr_ligplaats.indauthentiek   = 'J'
+AND bgr_ligplaatsadres.indhoofdadres = 'J'
+AND bra_adres.ruimtenr            = bra_ruimte.ruimtenr
+AND bra_ruimte.woonplaatsnr       = bra_woonplaats.woonplaatsnr
+AND bra_adres.adresnr             = bgr_ligplaatsadres.adresnr
+AND bgr_ligplaats.ligplaatsnr     = bgr_ligplaatsadres.ligplaatsnr
+AND bgr_ligplaats.ligplaatsvolgnr = bgr_ligplaatsadres.ligplaatsvolgnr
+-- ligplaatsen --
+UNION SELECT 
+  'standplaats',
+  htmlunescape(bra_ruimte.ruimtenaam_d) AS RUIMTENAAM,
+  bra_ruimte.ruimtenaam AS RUIMTENAAM_SIMPEL,
+  htmlunescape(bra_ruimte.ruimtenaam_boco_d) AS RUIMTENAAM_BOCO,
+  UPPER(bra_ruimte.ruimtenaam_boco) AS RUIMTENAAM_USIMPEL,  
+  UPPER(htmlunescape(bra_ruimte.ruimtenaam_d)) AS RUIMTENAAM_UPPER,
+  bra_adres.huisnr,
+  bra_adres.huislt,
+  bra_adres.toevoeging,
+  bra_adres.postc_n || bra_adres.postc_a,
+  htmlunescape(bra_woonplaats.woonplaatsnaam_d) AS WOONPLAATSNAAM,
+  bra_woonplaats.woonplaatsnaam AS WOONPLAATSNAAM_SIMPEL,
+  UPPER(bra_woonplaats.woonplaatsnaam)  AS WOONPLAATSNAAM_USIMPEL,
+  bra_adres.adresid,
+  bgr_standplaats.standplaatsid
+FROM
+  BAGOWNER.BRA_ADRES       bra_adres,
+  BAGOWNER.BRA_RUIMTE      bra_ruimte,  
+  BAGOWNER.BRA_WOONPLAATS  bra_woonplaats,
+  BAGOWNER.BGR_STANDPLAATSADRES bgr_standplaatsadres,
+  BAGOWNER.BGR_STANDPLAATS bgr_standplaats    
+WHERE bra_adres.ddeinde            IS NULL
+AND bra_adres.indactief               = 'J'
+AND bra_ruimte.ddeinde               IS NULL
+AND bra_ruimte.indactief              = 'J'
+AND bra_woonplaats.ddeinde           IS NULL
+AND bra_woonplaats.indactief          = 'J'
+AND bra_adres.indauthentiek           = 'J'
+AND bgr_standplaats.ddeinde          IS NULL
+AND bgr_standplaats.indactief         = 'J'
+AND bgr_standplaats.indauthentiek     = 'J'
+AND bgr_standplaatsadres.indhoofdadres = 'J'
+AND bra_adres.ruimtenr                = bra_ruimte.ruimtenr
+AND bra_ruimte.woonplaatsnr           = bra_woonplaats.woonplaatsnr
+AND bra_adres.adresnr                 = bgr_standplaatsadres.adresnr
+AND bgr_standplaats.standplaatsnr     = bgr_standplaatsadres.standplaatsnr
+AND bgr_standplaats.standplaatsvolgnr = bgr_standplaatsadres.standplaatsvolgnr</t>
+  </si>
+  <si>
+    <t>BAG_HARLINGEN</t>
+  </si>
+  <si>
+    <t>GBA_LITTENS</t>
+  </si>
+  <si>
+    <t>SELECT 
+  GBA_VSELAKTP."BSN",
+  GBA_VSELAKTP."GEBOORTEDATUM", 
+  GBA_VSELAKTP.VOORNAAM,
+  GBA_VSELAKTP."VOORLETTERS", 
+  GBA_VSELAKTP."VOORVOEGSEL", 
+  GBA_VSELAKTP."GESLACHTSNAAM", 
+  GBA_VSELAKTP."GEMEENTEKODE", 
+  GBA_VSELAKTP."STRAATNAAM", 
+  GBA_VSELADRS."NAAM_OPENBARE_RUIMTE", 
+  GBA_VSELAKTP."HUISNUMMER", 
+  GBA_VSELAKTP."HUISLETTER", 
+  GBA_VSELAKTP."TOEVOEGING_HUISNUMMER", 
+  GBA_VSELAKTP."AANDUIDING_HUISNUMMER", 
+  GBA_VSELAKTP."OMSCHRIJVING_LOKATIE", 
+  GBA_VSELAKTP."POSTKODE_NUMERIEK" || GBA_VSELAKTP."POSTKODE_ALFANUMERIEK" AS POSTCODE, 
+  GBA_VSELADRS."GEMEENTEDEEL" AS WOONPLAATS,
+  GBA_VSELADRS."IDENT_VERBLIJFPLAATS", 
+  GBA_VSELADRS."IDENT_NUMMERAANDUIDING",
+  GBA_VSELAKTP."ADMINISTRATIENUMMER",
+  GBA_VSELAKTP."KODE_GESLACHT"
+FROM
+  PRODPIV.GBA_VSELAKTP,
+  PRODPIV.GBA_VSELADRS
+WHERE GBA_VSELAKTP.SYSTEEMNUMMER_ADRES = GBA_VSELADRS.SYSTEEMNUMMER_ADRES</t>
+  </si>
+  <si>
+    <t>GBA_HARLINGEN</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 
+  GBA_VSELAKTP.BSN,
+  GBA_VSELAKTP.GEBOORTEDATUM, 
+  GBA_VSELAKTP.VOORNAAM,
+  GBA_VSELAKTP.VOORLETTERS, 
+  GBA_VSELAKTP.VOORVOEGSEL, 
+  GBA_VSELAKTP.GESLACHTSNAAM, 
+  GBA_VSELAKTP.GEMEENTEKODE, 
+  GBA_VSELAKTP.STRAATNAAM, 
+  GBA_VSELADRS.NAAM_OPENBARE_RUIMTE, 
+  GBA_VSELAKTP.HUISNUMMER, 
+  GBA_VSELAKTP.HUISLETTER, 
+  GBA_VSELAKTP.TOEVOEGING_HUISNUMMER, 
+  GBA_VSELAKTP.AANDUIDING_HUISNUMMER, 
+  GBA_VSELAKTP.OMSCHRIJVING_LOKATIE, 
+  GBA_VSELAKTP.POSTKODE_NUMERIEK || GBA_VSELAKTP.POSTKODE_ALFANUMERIEK AS POSTCODE, 
+  GBA_VSELADRS.GEMEENTEDEEL AS WOONPLAATS,
+  GBA_VSELADRS.IDENT_VERBLIJFPLAATS, 
+  GBA_VSELADRS.IDENT_NUMMERAANDUIDING,
+  GBA_VSELAKTP.ADMINISTRATIENUMMER,
+  GBA_VSELAKTP.KODE_GESLACHT
+FROM
+  PRODPIV.GBA_VSELAKTP,
+  PRODPIV.GBA_VSELADRS
+WHERE GBA_VSELAKTP.SYSTEEMNUMMER_ADRES = GBA_VSELADRS.SYSTEEMNUMMER_ADRES</t>
+  </si>
+  <si>
+    <t>PPIV_HARLINGEN</t>
+  </si>
+  <si>
+    <t>DDS_NNP-voorGVG</t>
+  </si>
+  <si>
+    <t>--niet natuurlijke personen in DDS
+--Pdds
+select
+dds_nnp_opslag.nnpnr,
+corr_adres.regnum kvknummer,
+dds_nnp_opslag.hdlnam,
+dds_nnp_opslag.stanam,
+vest_adres.sttnam vest_straatnaam,
+vest_adres.obrnam vest_openbareruimtenaam,
+vest_adres.huinum vest_nummer,
+vest_adres.huilet vest_letter,
+vest_adres.huitvg vest_toevoeging,
+vest_adres.pbusnr vest_postbusnr,
+vest_adres.pkdnum vest_postcode,
+vest_adres.wplnam vest_woonplaats,
+dds_tekensetconversie.teletex2unicode(corr_adres.sttnam_d) AS corr_straatnaam,
+dds_tekensetconversie.teletex2unicode(corr_adres.obrnam_d) AS corr_openbareruimtenaam,
+-- case (corr_adres.sttnam_d when null then 'Postbus' else corr_adres.sttnam_d end as straat, 
+corr_adres.huinum || corr_adres.pbusnr as corr_huisnummer ,
+corr_adres.huilet corr_letter,
+corr_adres.huitvg corr_toevoeging,
+--corr_adres.pbusnr corr_postbusnr,
+corr_adres.pkdnum corr_postcode,
+corr_adres.wplnam corr_woonplaats,
+dds_nnp_opslag.datoprnnp,
+dds_nnp_opslag.datendnnp,
+vest_adres.numsta,
+vest_adres.identtgo,
+vest_adres.wplnam_bag,
+vest_adres.gemkde 
+from  dds_nnp_opslag 
+join (select dds_nnp_opslag.nnpnr, dds_adr_opslag.adrnr, dds_adr_opslag.gemkde, dds_adr_opslag.huinum, dds_adr_opslag.huilet, dds_adr_opslag.huitvg, 
+dds_adr_opslag.pbusnr, dds_adr_opslag.pkdnum, dds_adr_opslag.wplnam, dds_adr_opslag.wplnam_u, dds_adr_opslag.obrnam, 
+dds_adr_opslag.obrnam_d, dds_adr_opslag.obrnam_u, dds_adr_opslag.sttnam, dds_adr_opslag.sttnam_u, dds_adr_opslag.sttnam_d, dds_nnp_opslag.regnum 
+from dds_nnp_opslag
+      join dds_adr_opslag
+      on dds_nnp_opslag.adrnrcor = dds_adr_opslag.adrnr
+      where dds_adr_opslag.gemkde =  '1900'
+      --and dds_nnp_opslag.nnpnr = '105563'
+      ) corr_adres
+on dds_nnp_opslag.nnpnr  = corr_adres.nnpnr      
+join 
+(select * from dds_nnpadr_opslag
+join dds_adr_opslag
+on dds_nnpadr_opslag.adrnr = dds_adr_opslag.adrnr
+where dds_nnpadr_opslag.datend is null
+) vest_adres
+on corr_adres.nnpnr = vest_adres.nnpnr
+where dds_nnp_opslag.datendnnp is null
+and dds_nnp_opslag.nnpnr = '76923'
+--order by corr_adres.regnum kvknummer</t>
+  </si>
+  <si>
+    <t>PPIV_LITTENS</t>
+  </si>
+  <si>
+    <t>/*
+R2:
+        GBA - actuele personen
+        Contact: A.Kraak@gemeenteswf.nl
+        A-nummer*      
+        BSN*     
+        Voorvoegsel*   
+        Geslachtsnaam*             
+        Geboortedatum*           
+        Geboorteplaats*            
+        Geslacht*           
+        Postcode*          
+        Straatnaam        
+        Huisnummer*  
+        Huisletter*         
+        Huisnummertoevoeging*           
+        Datum huwelijkssluiting/geregistreerd partnerschap* 
+        Datum ontbinding huwelijkssluiting/geregistreerd partnerschap*
+*/
+/*
+SELECT 
+  GBA_VSELAKTP.administratienummer AS anummer,
+  GBA_VSELAKTP.bsn,
+  GBA_VSELAKTP.voornaam,
+  GBA_VSELAKTP.voorvoegsel,
+  GBA_VSELAKTP.geslachtsnaam,
+  GBA_VSELAKTP.geboortedatum,
+  GBA_VSELAKTP.geboorteplaatsnaam AS geboorteplaats,
+  GBA_VSELAKTP.kode_geslacht AS geslacht,
+  GBA_VSELAKTP.POSTKODE_NUMERIEK || GBA_VSELAKTP.POSTKODE_ALFANUMERIEK AS postcode, 
+  -- GBA_VSELAKTP.straatnaam,
+  GBA_VSELADRS."NAAM_OPENBARE_RUIMTE" AS openbareruimtenaam,   
+  GBA_VSELAKTP.huisnummer,
+  GBA_VSELAKTP.huisletter,      
+  GBA_VSELAKTP.toevoeging_huisnummer AS huisnummertoevoeging,
+  GBA_VSELADRS.GEMEENTEDEEL AS WOONPLAATS,
+  GBA_VSELADRS.IDENT_VERBLIJFPLAATS, 
+  GBA_VSELADRS.IDENT_NUMMERAANDUIDING,
+  GBA_VSELHUW.DATUM_HUWELIJK,
+  GBA_VSELHUW.DATUM_HUWELIJKSONTBINDING
+FROM
+  PRODPIV.GBA_VSELAKTP@PPIV
+JOIN PRODPIV.GBA_VSELADRS@PPIV
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_ADRES = GBA_VSELADRS.SYSTEEMNUMMER_ADRES
+JOIN PRODPIV.GBA_VSELHUW@PPIV
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_PERSOON = GBA_VSELHUW.SYSTEEMNUMMER_PERSOON
+--WHERE GBA_VSELAKTP.administratienummer = 9245906875
+*/
+SELECT 
+  GBA_VSELAKTP.administratienummer AS anummer,
+  GBA_VSELAKTP.bsn,
+  GBA_VSELAKTP.voornaam,
+  GBA_VSELAKTP.voorvoegsel,
+  GBA_VSELAKTP.geslachtsnaam,
+  GBA_VSELAKTP.geboortedatum,
+  GBA_VSELAKTP.geboorteplaatsnaam AS geboorteplaats,
+  GBA_VSELAKTP.kode_geslacht AS geslacht,
+  GBA_VSELAKTP.POSTKODE_NUMERIEK || GBA_VSELAKTP.POSTKODE_ALFANUMERIEK AS postcode, 
+  -- GBA_VSELAKTP.straatnaam,
+  GBA_VSELADRS."NAAM_OPENBARE_RUIMTE" AS openbareruimtenaam,
+  GBA_VSELADRS.straatnaam,
+  GBA_VSELADRS.straatnaam_TLX,
+  GBA_VSELADRS.straatnaam_ZD,
+  GBA_VSELAKTP.huisnummer,
+  GBA_VSELAKTP.huisletter,      
+  GBA_VSELAKTP.toevoeging_huisnummer AS huisnummertoevoeging,
+  GBA_VSELADRS.GEMEENTEDEEL AS WOONPLAATS,
+  GBA_VSELADRS.IDENT_VERBLIJFPLAATS, 
+  GBA_VSELADRS.IDENT_NUMMERAANDUIDING,
+  GBA_VSELHUW.DATUM_HUWELIJK,
+  GBA_VSELHUW.DATUM_HUWELIJKSONTBINDING
+FROM
+  PRODPIV.GBA_VSELAKTP
+JOIN PRODPIV.GBA_VSELADRS
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_ADRES = GBA_VSELADRS.SYSTEEMNUMMER_ADRES
+JOIN PRODPIV.GBA_VSELHUW
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_PERSOON = GBA_VSELHUW.SYSTEEMNUMMER_PERSOON
+--WHERE GBA_VSELAKTP.administratienummer = 9245906875</t>
+  </si>
+  <si>
+    <t>GVG_VERGUNNING</t>
+  </si>
+  <si>
+    <t>select distinct
+case  when AVRAAN.IDENT_SAA is null  or to_char(AVRAAN.IDENT) is null  then  null  else AVRAAN.IDENT_SAA || to_char(AVRAAN.IDENT) end as vergunning, 
+VGVOB.STRAAT,
+VGVOB.POSTCODE,
+VGVOB.HUISNR,
+VGVOB.HUISLT,
+VGVOB.TOEV,
+AVRAAN.LOKATIE, 
+VGVOB.STATUS_VBO,
+VGVOB.IDENT_BAG,
+--PBSPSN_A_IDENT_AVR.SOFI_NR, 
+AVRAAN.TEKST, 
+AVRVRG.DATUM_BESLUIT, 
+VGVOB.DATUM_INGANG
+from (
+((((((((AVRAAN AVRAAN 
+LEFT OUTER JOIN AVRAAB AVRAAB 
+on AVRAAN.IDENT_SAA=AVRAAB.IDENT_SAA 
+and AVRAAN.IDENT=AVRAAB.IDENT_AAN) 
+LEFT OUTER JOIN PBSPSN PBSPSN_A_AVRAVR_SO3 
+on AVRAAB.IDENT_AVR_S03=PBSPSN_A_AVRAVR_SO3.REG_NR) 
+LEFT OUTER JOIN AVRSAA AVRSAA 
+on AVRAAN.IDENT_SAA=AVRSAA.IDENT) 
+LEFT OUTER JOIN PBSPSN PBSPSN_A_IDENT_AVR 
+on AVRAAN.IDENT_AVR=PBSPSN_A_IDENT_AVR.REG_NR) 
+LEFT OUTER JOIN PBSPBT PBSPBT_A_IDENT_AVR 
+on PBSPSN_A_IDENT_AVR.IDENT_PBT=PBSPBT_A_IDENT_AVR.IDENT) 
+LEFT OUTER JOIN PBSPSN PBSPSN_A_AVRAVR_SO2 
+on AVRAAN.IDENT_AVR_S02=PBSPSN_A_AVRAVR_SO2.REG_NR) 
+LEFT OUTER JOIN AVRAVO AVRAVO 
+on AVRAAN.IDENT_SAA=AVRAVO.IDENT_SAA 
+and AVRAAN.IDENT=AVRAVO.IDENT_AAN) 
+LEFT OUTER JOIN VGVOB VGVOB 
+on AVRAVO.IDENT_VOB=VGVOB.IDENT) 
+LEFT OUTER JOIN VGVKA VGVKA 
+on VGVOB.IDENT=VGVKA.IDENT_VOB) 
+LEFT OUTER JOIN AVRVRG AVRVRG 
+on AVRAAN.IDENT_SAA=AVRVRG.IDENT_SAA 
+and AVRAAN.IDENT=AVRVRG.IDENT_AAN
+where AVRSAA.TYPE_AANVRAAG=1 
+AND VGVOB.STATUS_VBO != 'Verblijfsobject ingetrokken'
+and VGVOB.STRAAT is not null
+--PBSPSN_A_IDENT_AVR.VOORLET, 
+--PBSPSN_A_IDENT_AVR.AANSPREEKNAAM_VVOEG, 
+--PBSPSN_A_IDENT_AVR.AANSPREEKNAAM_BL_ZV,
+--PBSPSN_A_IDENT_AVR.SOFI_NR_AANV, 
+--PBSPBT_A_IDENT_AVR.STRAAT, 
+--case  when PBSPBT_A_IDENT_AVR.STRAAT is null  then  null  else PBSPBT_A_IDENT_AVR.STRAAT || ' ' end as straat, 
+--PBSPBT_A_IDENT_AVR.HUISNR, 
+--case  when to_char(PBSPBT_A_IDENT_AVR.HUISNR) is null  then  null  else to_char(PBSPBT_A_IDENT_AVR.HUISNR) || ' ' end as huisnr, 
+--PBSPBT_A_IDENT_AVR.HUISLT, 
+--case  when PBSPBT_A_IDENT_AVR.HUISLT is null  then  null  else PBSPBT_A_IDENT_AVR.HUISLT || ' ' end as huislt, 
+--PBSPBT_A_IDENT_AVR.HUISTV, 
+--PBSPBT_A_IDENT_AVR.HUISAD, 
+--case  when PBSPBT_A_IDENT_AVR.HUISAD is null  then  null  else PBSPBT_A_IDENT_AVR.HUISAD || ' ' end as aanduiding, 
+--PBSPBT_A_IDENT_AVR.POSTKODE, 
+--PBSPBT_A_IDENT_AVR.WOONPLAATS, 
+--VGVKA.SEKTIE, 
+--VGVKA.PERCEELNR, 
+--VGVKA.IX_LETTER, 
+--VGVKA.IX_NUMMER, 
+--PBSPSN_A_AVRAVR_SO2.VOORLET, 
+--case  when PBSPSN_A_AVRAVR_SO2.VOORLET is null  then  null  else PBSPSN_A_AVRAVR_SO2.VOORLET || ' ' end , 
+--PBSPSN_A_AVRAVR_SO2.AANSPREEKNAAM_VVOEG, 
+--case  when PBSPSN_A_AVRAVR_SO2.AANSPREEKNAAM_VVOEG is null  then  null  else PBSPSN_A_AVRAVR_SO2.AANSPREEKNAAM_VVOEG || ' ' end , 
+--PBSPSN_A_AVRAVR_SO2.AANSPREEKNAAM_BL_ZV, 
+--PBSPSN_A_AVRAVR_SO3.VOORLET, 
+--case  when PBSPSN_A_AVRAVR_SO3.VOORLET is null  then  null  else PBSPSN_A_AVRAVR_SO3.VOORLET || ' ' end , 
+--PBSPSN_A_AVRAVR_SO3.AANSPREEKNAAM_VVOEG, 
+--case  when PBSPSN_A_AVRAVR_SO3.AANSPREEKNAAM_VVOEG is null  then  null  else PBSPSN_A_AVRAVR_SO3.AANSPREEKNAAM_VVOEG || ' ' end , 
+--PBSPSN_A_AVRAVR_SO3.AANSPREEKNAAM_BL_ZV, 
+--AVRAAB.BOUWKOSTEN_BWT, 
+--vgvob.ident,
+--vgvob.ident_pnd,
+--vgvob.woonopo,
+--vgvob.ind_authentiek,
+--vgvob.ident_pbt,
+--vgvob.type_vbo,
+--VGVOB.GEBRUIKSDOEL1,
+--VGVOB.GEBRUIKSDOEL2,
+--VGVOB.GEBRUIKSDOEL3,
+--VGVOB.GEBRUIKSDOEL4,
+--VGVOB.GEBRUIKSDOEL5</t>
+  </si>
+  <si>
+    <t>LIT_BAG_STANDPLAATS</t>
+  </si>
+  <si>
+    <t>LIT_BAG_VBO</t>
+  </si>
+  <si>
+    <t>-- VERBLIJFSOBJECTEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT 
+DISTINCT
+BGR_VERBLIJFSOBJECT.VOBJNR,
+BGR_VERBLIJFSOBJECT.VERBLIJFSOBJECTID,
+BGR_VERBLIJFSOBJECT.DDEINDE,
+BGR_VERBLIJFSOBJECT.INDONDERZOEK,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BGR_VERBLIJFSOBJECTADRES.ADRESID,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BGR_VERBLIJFSOBJECT.OPPERVLAK,
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'bijeenkomstfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'B' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'celfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'C' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'gezondheidszorgfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'G' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'industriefunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'I' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'kantoorfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'K' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'logiesfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'L' ELSE '' END 
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'onderwijsfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'On' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'overige gebruiksfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'O' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'sportfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'S' ELSE '' END  
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'winkelfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'Wi' ELSE '' END
+||
+CASE WHEN (SELECT COUNT(*) FROM BGR_V_VOBJGEBRCISI WHERE BGR_V_VOBJGEBRCISI.GEBRUIK_OMS = 'woonfunctie' and BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR) &gt; 0 THEN 'W' ELSE '' END as FUNCTIES
+FROM BGR_VERBLIJFSOBJECT
+LEFT JOIN BGR_VERBLIJFSOBJECTGEBRUIK
+ON BGR_VERBLIJFSOBJECT.VOBJNR = BGR_VERBLIJFSOBJECTGEBRUIK.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_VERBLIJFSOBJECTGEBRUIK.VOBJVOLGNR
+LEFT JOIN 
+    (SELECT * FROM BAG_GENSTATUSCODE
+    WHERE ENTITEIT = 'VERBLIJFSOBJECT')BAG_GENSTATUSCODE
+    ON BGR_VERBLIJFSOBJECT.VOBJSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+LEFT JOIN BGR_V_VOBJGEBRCISI
+ON BGR_VERBLIJFSOBJECT.VOBJNR = BGR_V_VOBJGEBRCISI.VOBJNR
+AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_V_VOBJGEBRCISI.VOBJVOLGNR
+LEFT JOIN REG_V_REGISTER
+ON BGR_VERBLIJFSOBJECT.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+JOIN
+    (SELECT BGR_VERBLIJFSOBJECTADRES.VOBJNR vbonr, BGR_VERBLIJFSOBJECTADRES.VOBJVOLGNR vbovolgnr, BGR_VERBLIJFSOBJECTADRES.ADRESNR adresnr,
+    BRA_ADRES.ADRESNR adrnr, BRA_ADRES.ADRVOLGNR adrvolgnr, BRA_ADRES.ADRESID adresid
+    FROM BGR_VERBLIJFSOBJECTADRES
+    JOIN BRA_ADRES
+    ON BGR_VERBLIJFSOBJECTADRES.ADRESNR = BRA_ADRES.ADRESNR
+    WHERE BRA_ADRES.DDEINDE IS NULL
+    AND BGR_VERBLIJFSOBJECTADRES.DDEINDE IS NULL
+    AND INDHOOFDADRES = 'J') BGR_VERBLIJFSOBJECTADRES
+    ON BGR_VERBLIJFSOBJECT.VOBJNR = BGR_VERBLIJFSOBJECTADRES.vbonr
+    AND BGR_VERBLIJFSOBJECT.VOBJVOLGNR = BGR_VERBLIJFSOBJECTADRES.vbovolgnr
+WHERE (BGR_VERBLIJFSOBJECT.VOBJNR, BGR_VERBLIJFSOBJECT.VOBJVOLGNR) IN
+      (SELECT BGR_VERBLIJFSOBJECT.VOBJNR, MAX(BGR_VERBLIJFSOBJECT.VOBJVOLGNR)
+      FROM BGR_VERBLIJFSOBJECT
+     WHERE BGR_VERBLIJFSOBJECT.DDMUTATIE &lt; '06-01-17'
+      GROUP BY BGR_VERBLIJFSOBJECT.VOBJNR)</t>
+  </si>
+  <si>
+    <t>LIT_BAG_WOONPLAATS</t>
+  </si>
+  <si>
+    <t>-- WOONPLAATSEN IN BAG VOOR DE LANDELIJKE VOORZIENINNG 
+-- T/M MUTATIEDATUM '06-01-2017' 
+SELECT 
+BRA_WOONPLAATS.WOONPLAATSID,
+SUBSTR(REG_V_REGISTER.DDINGANG, 1, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 4, 2) || '-' || SUBSTR(REG_V_REGISTER.DDINGANG, 7, 4) AS DDINGANG,
+BRA_WOONPLAATS.DDEINDE,
+BRA_WOONPLAATS.INDONDERZOEK,
+BAG_GENSTATUSCODE.STATUS_OMS,
+BRA_WOONPLAATS.WOONPLAATSSTATUSCODE,
+LTRIM(RTRIM(REG_V_REGISTER.DOCUMENTNUMMER)) AS DOCUMENTNUMMER,
+REG_V_REGISTER.DDREGISTRATIE,
+htmlunescape(BRA_WOONPlAATS.WOONPLAATSNAAM_D) AS WOONPLAATSNAAM,
+BRA_WOONPLAATS.GEMEENTENR
+FROM BRA_WOONPLAATS
+LEFT JOIN REG_V_REGISTER
+ON BRA_WOONPlAATS.REFERENTIENR = REG_V_REGISTER.REGISTERNR
+LEFT JOIN
+    (SELECT * FROM BAG_GENSTATUSCODE WHERE ENTITEIT = 'WOONPLAATS')BAG_GENSTATUSCODE
+ON BRA_WOONPLAATS.WOONPLAATSSTATUSCODE = BAG_GENSTATUSCODE.STATUSCODE
+WHERE (BRA_WOONPLAATS.WOONPLAATSNR, BRA_WOONPLAATS.WPLVOLGNR) IN
+      (SELECT BRA_WOONPLAATS.WOONPLAATSNR, MAX(BRA_WOONPLAATS.WPLVOLGNR)
+      FROM BRA_WOONPLAATS
+      GROUP BY BRA_WOONPLAATS.WOONPLAATSNR)      
+AND BRA_WOONPLAATS.DDEINDE IS NULL
+AND BRA_WOONPLAATS.INDAUTHENTIEK = 'J'</t>
+  </si>
+  <si>
+    <t>GGM_ADRESSEN</t>
+  </si>
+  <si>
+    <t>SELECT [ID]
+      ,[Identificatie]
+      ,[Typering]
+      ,[Huisnummer]
+      ,[Huisletter]
+      ,[HuisnummerToevoeging]
+      ,[Postcode]
+      ,[BeginGeldigheid]
+      ,[EindeGeldigheid]
+      ,[OpenbareRuimteID]
+  FROM [PSWFZKS-Gegevensmagazijn].[RSGB].[AdresseerbaarObjectAanduiding]
+  WHERE [EindeGeldigheid] IS NULL
+  AND [Identificatie] IS NOT NULL</t>
+  </si>
+  <si>
+    <t>Data Source=oracledatabase;User Id=oracleuser;Password=oraclepassword;</t>
+  </si>
+  <si>
+    <t>Server=sqlservername;Initial Catalog=databasename;Integrated Security=SSPI;</t>
   </si>
 </sst>
 </file>
@@ -2417,8 +4407,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:D54" totalsRowShown="0">
-  <autoFilter ref="A1:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:D110" totalsRowShown="0">
+  <autoFilter ref="A1:D110"/>
   <tableColumns count="4">
     <tableColumn id="1" name="NAME"/>
     <tableColumn id="2" name="PROVIDER"/>
@@ -2446,7 +4436,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2458,7 +4448,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2726,17 +4716,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="255.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,7 +4756,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2775,7 +4770,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -2789,7 +4784,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2803,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2817,7 +4812,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -2831,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2845,7 +4840,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -2859,7 +4854,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -2873,7 +4868,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -2887,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2901,7 +4896,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2915,7 +4910,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -2929,7 +4924,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -2943,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -2957,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -2971,7 +4966,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
@@ -2985,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -2999,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -3013,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
@@ -3027,7 +5022,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
@@ -3041,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -3055,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -3069,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
@@ -3083,7 +5078,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
@@ -3097,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
@@ -3111,7 +5106,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
         <v>56</v>
@@ -3125,7 +5120,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
@@ -3139,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -3153,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
@@ -3167,7 +5162,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -3181,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
@@ -3195,7 +5190,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
         <v>69</v>
@@ -3209,7 +5204,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D34" t="s">
         <v>71</v>
@@ -3223,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D35" t="s">
         <v>73</v>
@@ -3237,7 +5232,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
@@ -3251,7 +5246,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
@@ -3265,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
         <v>79</v>
@@ -3276,10 +5271,10 @@
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
@@ -3293,7 +5288,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
         <v>83</v>
@@ -3307,7 +5302,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
         <v>85</v>
@@ -3321,7 +5316,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
         <v>87</v>
@@ -3335,7 +5330,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
         <v>89</v>
@@ -3349,7 +5344,7 @@
         <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
         <v>91</v>
@@ -3363,7 +5358,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
         <v>93</v>
@@ -3377,7 +5372,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D46" t="s">
         <v>95</v>
@@ -3388,10 +5383,10 @@
         <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
         <v>97</v>
@@ -3405,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
@@ -3419,7 +5414,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
         <v>101</v>
@@ -3433,7 +5428,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
         <v>103</v>
@@ -3447,7 +5442,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s">
         <v>105</v>
@@ -3461,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
         <v>107</v>
@@ -3475,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
@@ -3489,17 +5484,800 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>220</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/HODOR_DATASOURCE.xlsx
+++ b/data/HODOR_DATASOURCE.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduard\ownCloud\ontwikkelen\github.com\GegevensVergelijker.metwijzigingen\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="233">
   <si>
     <t>NAME</t>
   </si>
@@ -4353,18 +4348,321 @@
   <si>
     <t>Server=sqlservername;Initial Catalog=databasename;Integrated Security=SSPI;</t>
   </si>
+  <si>
+    <t>DDFK_DDS_GVG_ADRACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Actieve adressen in DDS tbv GISVG
+-- Let op: in te richten paramters voor:
+-- gemeentekode en
+-- applicatenr van GISVG in DDS
+select  adr.adrnr,
+  ind.sleutelsrv,
+  ind.sleutelcli,
+  ind.dating,
+  adr.datend,
+  ind.applicatienr,
+  ind.onderwerpcode,
+  adr.dating,
+  adr.datend,
+  adr.sttnam,
+  dds_tekensetconversie.teletex2unicode(adr.sttnam_d) AS Straatnaam,
+  --adr.gemkde,
+  --adr.obrnam,
+  --adr.sttnam_u,
+  --adr.sttnam_d,
+  adr.huinum,
+  adr.huitvg,
+  adr.huilet,
+  adr.pkdnum,
+  --adr.wplnam,
+  dds_tekensetconversie.teletex2unicode(adr.wplnam) AS Woonplaats,
+  --adr.obrnam_d,
+  adr.identna,
+  adr.vbonr
+from dds_adr_opslag adr join dds_indicatie ind on adr.adrnr = ind.sleutelsrv
+where adr.datend is null
+and  adr.identna is not null
+-- Let op: aanpassen gemeentekode
+-- Deze aanpassing ook aanbrengen in selectie voor GISVG
+and  adr.gemkde = 58 -- Alleen adressen 'eigen' gemeente
+and  adr.datend is null
+and  ind.onderwerpcode = 'ADR'
+-- Let op: aanpassen applicatienr naar die voor GISVG in DDS
+-- opzoeken juiste applicatienr: 
+-- select * from dds_applicatie order by applicatiecode;
+and  ind.applicatienr = 13 
+order by wplnam, sttnam, huinum, huitvg, huilet
+</t>
+  </si>
+  <si>
+    <t>DDFK_GISVG_ADR_ALLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- GISVG Alle adressen voor 'eigen' gemeente
+select adr.ident,
+  adr.postkode,
+  ( nvl(adr.straat || ' ', '') || 
+   nvl(to_char(trunc(adr.huisnr)) || ' ', '') || 
+   nvl(adr.huislt || ' ', '') || 
+   nvl(adr.huistv,'') || 
+   nvl(adr.huisad || ' ', '')
+  ) c3,
+  adr.huisnr, 
+  adr.huislt, 
+  adr.huistv, 
+  adr.huisad, 
+  adr.lokatie, 
+  adr.soort, 
+  adr.strtkd_str, 
+  adr.wplkd_str, 
+  adr.gemkd_gem, 
+  adr.lndkd_lnd, 
+  adr.ident_ptt, 
+  adr.straat, 
+  adr.woonplaats, 
+  adr.landnaam, 
+  adr.datum_einde, 
+  adr.ind_authentiek, 
+  adr.ind_onderzoek, 
+  adr.dds_blokkeren,
+  adr.gemkd_gem
+from pbspbt adr
+where (adr.lndkd_lnd = 6030 or adr.lndkd_lnd is null)
+and  adr.gemkd_gem = '1891' -- Alleen adressen 'eigen' gemeente
+order by c3 asc
+</t>
+  </si>
+  <si>
+    <t>DDFK_GISVG_ADRSUBJACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- GISVG - subjecten met adressen actief
+-- Let op: aanpassen gemeentekode
+select distinct
+  pers.reg_nr,
+  pers.ident_pbt,
+  adr.straat,
+  adr.huisnr,
+  adr.huislt,
+  adr.huistv,
+  adr.woonplaats,
+  adr.postkode,
+  adr.ident,
+  pers.gebnaam,
+  pers.geb_datum,
+  pers.aanspreeknaam_bl_zv,
+  adrend.soort_adres,
+  ( nvl(adr.straat || ' ', '') || 
+   nvl(to_char(trunc(adr.huisnr)) || ' ', '') || 
+   nvl(adr.huislt || ' ', '') || 
+   nvl(adr.huistv,'') || 
+   nvl(adr.huisad || ' ', '')
+  ) c4,
+  -- Universeel SQL equivalent voor niet-Oracle databases:
+  /*((((case  when not T3.STRAAT is null then (T3.STRAAT || ' ') else '' end  || 
+   case  when not T3.HUISNR is null then (TO_CHAR(TRUNC(T3.HUISNR ) ) || ' ') else '' end ) || 
+   case  when not T3.HUISLT is null then (T3.HUISLT || ' ') else '' end ) || 
+   DECODE(T3.HUISTV,NULL,'' , T3.HUISTV)) || 
+   case  when not T3.HUISAD is null then (T3.HUISAD || ' ') else '' end 
+  ) c4, */
+  nvl(adr.huislt||' ', '') hslet,
+  adrend.datend, 
+  pers.soort_persoon, 
+  pers.sofi_nr, 
+  pers.sofi_nr_aanv, 
+  pers.kvk_nummer, 
+  pers.handelsregnr, 
+  adr.ident
+from pbspsn pers left outer join pbspsa adrend on pers.reg_nr=AdrEnd.reg_nr_psn
+  left outer join pbspbt adr on pers.ident_pbt=adr.ident
+where AdrEnd.datend is null
+--and adr.huislt is null
+--and adr.ident = '141138'
+-- Let op: aanpassen gemeentekode
+and  adr.gemkd_gem = '1891' -- Alleen adressen 'eigen' gemeente
+order by reg_nr asc
+</t>
+  </si>
+  <si>
+    <t>DDFK_OB_DDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+OB:
+ Gegevensmagazijn - actuele personen
+ Contact: 
+ A-nummer 
+ BSN 
+ Voorvoegsel* 
+ Geslachtsnaam* 
+ Geboortedatum 
+ Geboorteplaats 
+ Geslacht* 
+ Postcode* 
+ Straatnaam 
+ Huisnummer* 
+ Huisletter* 
+ Huisnummertoevoeging*
+*/
+SELECT
+  prso.admnum,
+  prso.sofnum,
+  prso.gesvvg,
+  dds_tekensetconversie.teletex2unicode(prso.gesnam_d) AS geslachtsnaam,
+  prso.gebdat,
+  dds_tekensetconversie.teletex2unicode(COALESCE(dds_gemeente.gemeente, prso.gebgmn)) AS geboortegemeente,
+  prso.gebgmn,
+  prso.gesand,
+  --adro.sttnam_d,
+  dds_tekensetconversie.teletex2unicode(adro.obrnam_d) AS openbareruimtenaam,
+  adro.huinum,
+  adro.huilet,
+  adro.huitvg,
+  --adro.huiand,  
+  adro.pkdnum,  
+  --adro.wplnam,
+  dds_tekensetconversie.teletex2unicode(adro.wplnam_bag) AS woonplaats,
+  adro.identobr,
+  adro.identna,
+  adro.identtgo,
+  vboo.identvbo
+FROM
+  DDS_PRS_OPSLAG prso
+INNER JOIN DDS_PRSADR_OPSLAG padr
+  ON prso.PRSNR = padr.PRSNR
+  AND (prso.indgba = 'J' OR prso.indbasispersoon = 'J')
+INNER JOIN DDS_ADR_OPSLAG adro
+  ON padr.ADRNR = adro.ADRNR
+  AND padr.SRTADR = 'I'
+  AND PADR.DATEND is null
+LEFT OUTER JOIN DDS_PREDIKAAT pred
+  ON PRED.PREDIKAAT = PRSO.ADLPRE
+INNER JOIN DDS_VBO_OPSLAG vboo
+  ON adro.ADRNR = vboo.ADRNR
+LEFT OUTER JOIN DDS_GEMEENTE dds_gemeente
+ON 
+(
+ -- RARE DDS OOK ALTIJD
+ to_char(dds_gemeente.gemeentecode) LIKE prso.gebgmn 
+ OR 
+ '0' || to_char(dds_gemeente.gemeentecode) LIKE prso.gebgmn 
+ OR
+ '00' || to_char(dds_gemeente.gemeentecode) LIKE prso.gebgmn 
+ OR
+ '000' || to_char(dds_gemeente.gemeentecode) LIKE prso.gebgmn 
+ OR
+ dds_gemeente.gemeente LIKE prso.gebgmn     
+)
+/
+</t>
+  </si>
+  <si>
+    <t>DDFK_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*
+R2:
+        GBA - actuele personen
+        Contact: A.Kraak@gemeenteswf.nl
+        A-nummer*      
+        BSN*     
+        Voorvoegsel*   
+        Geslachtsnaam*             
+        Geboortedatum*           
+        Geboorteplaats*            
+        Geslacht*           
+        Postcode*          
+        Straatnaam        
+        Huisnummer*  
+        Huisletter*         
+        Huisnummertoevoeging*           
+        Datum huwelijkssluiting/geregistreerd partnerschap* 
+        Datum ontbinding huwelijkssluiting/geregistreerd partnerschap*
+*/
+/*
+SELECT 
+  GBA_VSELAKTP.administratienummer AS anummer,
+  GBA_VSELAKTP.bsn,
+  GBA_VSELAKTP.voornaam,
+  GBA_VSELAKTP.voorvoegsel,
+  GBA_VSELAKTP.geslachtsnaam,
+  GBA_VSELAKTP.geboortedatum,
+  GBA_VSELAKTP.geboorteplaatsnaam AS geboorteplaats,
+  GBA_VSELAKTP.kode_geslacht AS geslacht,
+  GBA_VSELAKTP.POSTKODE_NUMERIEK || GBA_VSELAKTP.POSTKODE_ALFANUMERIEK AS postcode, 
+  -- GBA_VSELAKTP.straatnaam,
+  GBA_VSELADRS.""NAAM_OPENBARE_RUIMTE"" AS openbareruimtenaam,   
+  GBA_VSELAKTP.huisnummer,
+  GBA_VSELAKTP.huisletter,      
+  GBA_VSELAKTP.toevoeging_huisnummer AS huisnummertoevoeging,
+  GBA_VSELADRS.GEMEENTEDEEL AS WOONPLAATS,
+  GBA_VSELADRS.IDENT_VERBLIJFPLAATS, 
+  GBA_VSELADRS.IDENT_NUMMERAANDUIDING,
+  GBA_VSELHUW.DATUM_HUWELIJK,
+  GBA_VSELHUW.DATUM_HUWELIJKSONTBINDING
+FROM
+  PRODPIV.GBA_VSELAKTP@PPIV
+JOIN PRODPIV.GBA_VSELADRS@PPIV
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_ADRES = GBA_VSELADRS.SYSTEEMNUMMER_ADRES
+JOIN PRODPIV.GBA_VSELHUW@PPIV
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_PERSOON = GBA_VSELHUW.SYSTEEMNUMMER_PERSOON
+--WHERE GBA_VSELAKTP.administratienummer = 9245906875
+*/
+SELECT 
+  GBA_VSELAKTP.administratienummer AS anummer,
+  GBA_VSELAKTP.bsn,
+  GBA_VSELAKTP.voornaam,
+  GBA_VSELAKTP.voorvoegsel,
+  GBA_VSELAKTP.geslachtsnaam,
+  GBA_VSELAKTP.geboortedatum,
+  GBA_VSELAKTP.geboorteplaatsnaam AS geboorteplaats,
+  GBA_VSELAKTP.kode_geslacht AS geslacht,
+  GBA_VSELAKTP.POSTKODE_NUMERIEK || GBA_VSELAKTP.POSTKODE_ALFANUMERIEK AS postcode, 
+  -- GBA_VSELAKTP.straatnaam,
+  GBA_VSELADRS.""NAAM_OPENBARE_RUIMTE"" AS openbareruimtenaam,
+  GBA_VSELADRS.straatnaam,
+  GBA_VSELADRS.straatnaam_TLX,
+  GBA_VSELADRS.straatnaam_ZD,
+  GBA_VSELAKTP.huisnummer,
+  GBA_VSELAKTP.huisletter,      
+  GBA_VSELAKTP.toevoeging_huisnummer AS huisnummertoevoeging,
+  GBA_VSELADRS.GEMEENTEDEEL AS WOONPLAATS,
+  GBA_VSELADRS.IDENT_VERBLIJFPLAATS, 
+  GBA_VSELADRS.IDENT_NUMMERAANDUIDING,
+  GBA_VSELHUW.DATUM_HUWELIJK,
+  GBA_VSELHUW.DATUM_HUWELIJKSONTBINDING
+FROM
+  PRODPIV.GBA_VSELAKTP
+JOIN PRODPIV.GBA_VSELADRS
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_ADRES = GBA_VSELADRS.SYSTEEMNUMMER_ADRES
+JOIN PRODPIV.GBA_VSELHUW
+  ON GBA_VSELAKTP.SYSTEEMNUMMER_PERSOON = GBA_VSELHUW.SYSTEEMNUMMER_PERSOON
+--WHERE GBA_VSELAKTP.administratienummer = 9245906875
+/
+</t>
+  </si>
+  <si>
+    <t>BUNSCHOTEN_DDS_OVL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4375,7 +4673,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4383,18 +4681,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4407,8 +4750,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:D110" totalsRowShown="0">
-  <autoFilter ref="A1:D110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:D116" totalsRowShown="0">
+  <autoFilter ref="A1:D116"/>
   <tableColumns count="4">
     <tableColumn id="1" name="NAME"/>
     <tableColumn id="2" name="PROVIDER"/>
@@ -4708,7 +5051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4719,11 +5062,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6274,10 +6617,74 @@
         <v>219</v>
       </c>
     </row>
+    <row r="111" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>